--- a/CISCSimulator/doc/test_program1_design_FN.xlsx
+++ b/CISCSimulator/doc/test_program1_design_FN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\github\CISC_Machine\CISCSimulator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{305D53BF-C180-4BA6-AFE4-D6811FEA6964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498DD814-754C-4806-B341-6D15039F2178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1728" yWindow="0" windowWidth="21312" windowHeight="12960" xr2:uid="{EFBCDC6E-D5C0-4EA5-8F8C-AB656C5046D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="482">
   <si>
     <t xml:space="preserve"> IN 0, 0</t>
   </si>
@@ -851,9 +851,6 @@
     <t>mem[420]=R2</t>
   </si>
   <si>
-    <t>//   call mem[420]=R2</t>
-  </si>
-  <si>
     <t>LDX 1,23,I</t>
   </si>
   <si>
@@ -1077,9 +1074,6 @@
     <t>// if return value is negative</t>
   </si>
   <si>
-    <t>// else skip mem[420]=R2</t>
-  </si>
-  <si>
     <t>// else skip R2=R2*-1</t>
   </si>
   <si>
@@ -1179,12 +1173,6 @@
     <t>// set current difference</t>
   </si>
   <si>
-    <t>:false-27</t>
-  </si>
-  <si>
-    <t>JMA 3,27</t>
-  </si>
-  <si>
     <t>LDR 1,0,9</t>
   </si>
   <si>
@@ -1281,12 +1269,6 @@
     <t>// mark phase3 in mem[550]</t>
   </si>
   <si>
-    <t>IX1=48 =&gt; '0'</t>
-  </si>
-  <si>
-    <t>LDX 1,15</t>
-  </si>
-  <si>
     <t>LDR 0,0,27,I</t>
   </si>
   <si>
@@ -1323,81 +1305,30 @@
     <t>STR 1,2,2</t>
   </si>
   <si>
-    <t>LDR 0,2,0</t>
-  </si>
-  <si>
     <t>IX3=mem[500]</t>
   </si>
   <si>
     <t>// IX3=1370</t>
   </si>
   <si>
-    <t>// divide 10 to extract number</t>
-  </si>
-  <si>
     <t>mem[504]=R1</t>
   </si>
   <si>
     <t>mem[501]=R1</t>
   </si>
   <si>
-    <t>:print number--9</t>
-  </si>
-  <si>
     <t>AMR 0,0,15</t>
   </si>
   <si>
-    <t>R0=R0+48</t>
-  </si>
-  <si>
-    <t>// 48 is '0'</t>
-  </si>
-  <si>
-    <t>// base of number</t>
-  </si>
-  <si>
     <t>// divider</t>
   </si>
   <si>
-    <t>R0=mem[500];</t>
-  </si>
-  <si>
     <t>mem[503]=R1</t>
   </si>
   <si>
     <t>mem[502]=R1</t>
   </si>
   <si>
-    <t>JSR 3,9</t>
-  </si>
-  <si>
-    <t>LDR 0,2,2</t>
-  </si>
-  <si>
-    <t>LDR 0,2,3</t>
-  </si>
-  <si>
-    <t>LDR 0,2,4</t>
-  </si>
-  <si>
-    <t>R0=mem[501];</t>
-  </si>
-  <si>
-    <t>R0=mem[502];</t>
-  </si>
-  <si>
-    <t>R0=mem[503];</t>
-  </si>
-  <si>
-    <t>R0=mem[504];</t>
-  </si>
-  <si>
-    <t>JMA 3,18</t>
-  </si>
-  <si>
-    <t>JNE 0,3,11</t>
-  </si>
-  <si>
     <t>//print " is the closest number."</t>
   </si>
   <si>
@@ -1413,9 +1344,6 @@
     <t>//is</t>
   </si>
   <si>
-    <t>:return--13</t>
-  </si>
-  <si>
     <t>R0=IX3+31</t>
   </si>
   <si>
@@ -1440,7 +1368,118 @@
     <t>// backup register</t>
   </si>
   <si>
-    <t>// Print the number found.</t>
+    <t>// else skip mem[520]=R2</t>
+  </si>
+  <si>
+    <t>//   call mem[520]=R2</t>
+  </si>
+  <si>
+    <t>:false-28</t>
+  </si>
+  <si>
+    <t>JMA 3,28</t>
+  </si>
+  <si>
+    <t>LDX 1,10</t>
+  </si>
+  <si>
+    <t>IX1=500</t>
+  </si>
+  <si>
+    <t>LDR 1,0,28,I</t>
+  </si>
+  <si>
+    <t>R1=mem[560]</t>
+  </si>
+  <si>
+    <t>AIR 1,1</t>
+  </si>
+  <si>
+    <t>R1=R1+1</t>
+  </si>
+  <si>
+    <t>STR 1,0,28,I</t>
+  </si>
+  <si>
+    <t>mem[560]=R1</t>
+  </si>
+  <si>
+    <t>IX1=mem[560]</t>
+  </si>
+  <si>
+    <t>JMA 3,22</t>
+  </si>
+  <si>
+    <t>:print number--7</t>
+  </si>
+  <si>
+    <t>R0=IX3+30</t>
+  </si>
+  <si>
+    <t>LDA 0,3,30</t>
+  </si>
+  <si>
+    <t>mem[500]=1400</t>
+  </si>
+  <si>
+    <t>LDA 3,2,4</t>
+  </si>
+  <si>
+    <t>R3=504</t>
+  </si>
+  <si>
+    <t>// end of array</t>
+  </si>
+  <si>
+    <t>:loop-22</t>
+  </si>
+  <si>
+    <t>LDR 0,0,28,I</t>
+  </si>
+  <si>
+    <t>R0=mem[560]</t>
+  </si>
+  <si>
+    <t>JNE 0,3,30</t>
+  </si>
+  <si>
+    <t>:newpart-30</t>
+  </si>
+  <si>
+    <t>:loop-4</t>
+  </si>
+  <si>
+    <t>JCC 3,3,17</t>
+  </si>
+  <si>
+    <t>JMA 3,4</t>
+  </si>
+  <si>
+    <t>STR 0,0,30,I</t>
+  </si>
+  <si>
+    <t>// find the point is not zero</t>
+  </si>
+  <si>
+    <t>// increase base point to use transfer instruction</t>
+  </si>
+  <si>
+    <t>// read data</t>
+  </si>
+  <si>
+    <t>// print data</t>
+  </si>
+  <si>
+    <t>//  compare end of point with current point</t>
+  </si>
+  <si>
+    <t>// if same break the loop</t>
+  </si>
+  <si>
+    <t>// else increase current point</t>
+  </si>
+  <si>
+    <t>// read the content in current point</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1730,10 +1769,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2048,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3678236-C951-4578-99F9-475994DA1FF9}">
-  <dimension ref="A1:H466"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E413" sqref="E413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2067,7 +2122,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16.2" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>166</v>
       </c>
@@ -2077,7 +2132,7 @@
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -2091,19 +2146,19 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="39">
         <v>1000</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="42" t="s">
         <v>162</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -2142,7 +2197,7 @@
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="26" t="s">
@@ -2155,7 +2210,7 @@
         <v>1003</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="15"/>
@@ -2170,7 +2225,7 @@
         <v>1004</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="15"/>
@@ -2236,22 +2291,22 @@
       <c r="E10" s="14"/>
       <c r="G10" s="3"/>
       <c r="H10" s="29" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18">
         <v>1009</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="20"/>
       <c r="G11" s="3"/>
       <c r="H11" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2272,7 +2327,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2302,7 +2357,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="3"/>
       <c r="H14" s="30" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2368,7 +2423,7 @@
       <c r="C18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>203</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -2376,7 +2431,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="30" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2387,13 +2442,13 @@
       <c r="C19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="3"/>
       <c r="H19" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2404,7 +2459,7 @@
       <c r="C20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="14"/>
@@ -2421,7 +2476,7 @@
       <c r="C21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="14"/>
@@ -2438,13 +2493,13 @@
       <c r="C22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="3"/>
       <c r="H22" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2455,13 +2510,13 @@
       <c r="C23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="14"/>
       <c r="G23" s="3"/>
       <c r="H23" s="31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2472,13 +2527,13 @@
       <c r="C24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="4" t="s">
         <v>209</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2489,7 +2544,7 @@
       <c r="C25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="7" t="s">
         <v>206</v>
       </c>
@@ -2506,7 +2561,7 @@
       <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="4" t="s">
         <v>207</v>
       </c>
@@ -2525,7 +2580,7 @@
       <c r="C27" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="7" t="s">
         <v>208</v>
       </c>
@@ -2544,7 +2599,7 @@
       <c r="C28" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="14"/>
@@ -2563,7 +2618,7 @@
       <c r="C29" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="14"/>
@@ -2571,7 +2626,7 @@
         <v>550</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" thickBot="1">
@@ -2582,7 +2637,7 @@
       <c r="C30" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="14"/>
@@ -2601,7 +2656,7 @@
       <c r="C31" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="4" t="s">
         <v>209</v>
       </c>
@@ -2614,7 +2669,7 @@
       <c r="C32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="7" t="s">
         <v>206</v>
       </c>
@@ -2627,7 +2682,7 @@
       <c r="C33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="4" t="s">
         <v>207</v>
       </c>
@@ -2640,7 +2695,7 @@
       <c r="C34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="7" t="s">
         <v>208</v>
       </c>
@@ -2653,7 +2708,7 @@
       <c r="C35" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="14"/>
@@ -2666,7 +2721,7 @@
       <c r="C36" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="14"/>
@@ -2679,7 +2734,7 @@
       <c r="C37" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="14"/>
@@ -2692,7 +2747,7 @@
       <c r="C38" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="4" t="s">
         <v>209</v>
       </c>
@@ -2705,7 +2760,7 @@
       <c r="C39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="35"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="7" t="s">
         <v>206</v>
       </c>
@@ -2718,7 +2773,7 @@
       <c r="C40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="35"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="4" t="s">
         <v>207</v>
       </c>
@@ -2731,7 +2786,7 @@
       <c r="C41" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="35"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="7" t="s">
         <v>208</v>
       </c>
@@ -2744,7 +2799,7 @@
       <c r="C42" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="14"/>
@@ -2757,7 +2812,7 @@
       <c r="C43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>33</v>
       </c>
       <c r="E43" s="14"/>
@@ -2770,7 +2825,7 @@
       <c r="C44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="34" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="14"/>
@@ -2783,7 +2838,7 @@
       <c r="C45" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="35"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="4" t="s">
         <v>209</v>
       </c>
@@ -2796,7 +2851,7 @@
       <c r="C46" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="35"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="7" t="s">
         <v>206</v>
       </c>
@@ -2809,7 +2864,7 @@
       <c r="C47" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="35"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="4" t="s">
         <v>207</v>
       </c>
@@ -2822,7 +2877,7 @@
       <c r="C48" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="35"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="7" t="s">
         <v>208</v>
       </c>
@@ -2835,7 +2890,7 @@
       <c r="C49" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="14"/>
@@ -2848,7 +2903,7 @@
       <c r="C50" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="14"/>
@@ -2861,7 +2916,7 @@
       <c r="C51" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="14"/>
@@ -2874,7 +2929,7 @@
       <c r="C52" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="35"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="4" t="s">
         <v>209</v>
       </c>
@@ -2887,7 +2942,7 @@
       <c r="C53" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="35"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="7" t="s">
         <v>206</v>
       </c>
@@ -2900,7 +2955,7 @@
       <c r="C54" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="35"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="4" t="s">
         <v>207</v>
       </c>
@@ -3085,7 +3140,7 @@
       <c r="D70" s="25"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="16.2" thickBot="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6">
         <v>1069</v>
@@ -3097,19 +3152,19 @@
       <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B72" s="6">
+      <c r="A72" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="B72" s="39">
         <v>1070</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="42" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3242,13 +3297,13 @@
         <v>1080</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D82" s="25" t="s">
-        <v>291</v>
-      </c>
       <c r="E82" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3358,7 +3413,7 @@
         <v>70</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3373,7 +3428,7 @@
         <v>72</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3416,7 +3471,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3451,7 +3506,7 @@
         <v>1095</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D97" s="25"/>
       <c r="E97" s="22" t="s">
@@ -3493,16 +3548,16 @@
       <c r="D100" s="25"/>
       <c r="E100" s="23"/>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6">
+    <row r="101" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A101" s="18"/>
+      <c r="B101" s="18">
         <v>1099</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="15"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="46"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="12" t="s">
@@ -3997,11 +4052,11 @@
         <v>1143</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4010,7 +4065,7 @@
         <v>1144</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="15"/>
@@ -4021,7 +4076,7 @@
         <v>1145</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="15"/>
@@ -4072,7 +4127,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="16.2" thickBot="1">
       <c r="A152" s="6"/>
       <c r="B152" s="6">
         <v>1150</v>
@@ -4084,19 +4139,19 @@
       <c r="E152" s="15"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="39">
         <v>1151</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D153" s="25" t="s">
+      <c r="D153" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E153" s="15"/>
+      <c r="E153" s="45"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="6"/>
@@ -5014,16 +5069,16 @@
       <c r="D235" s="25"/>
       <c r="E235" s="15"/>
     </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6">
+    <row r="236" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A236" s="18"/>
+      <c r="B236" s="18">
         <v>1234</v>
       </c>
-      <c r="C236" s="13" t="s">
+      <c r="C236" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D236" s="25"/>
-      <c r="E236" s="15"/>
+      <c r="D236" s="35"/>
+      <c r="E236" s="46"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="12" t="s">
@@ -5039,7 +5094,7 @@
         <v>264</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5082,7 +5137,7 @@
         <v>1238</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D240" s="25"/>
       <c r="E240" s="14" t="s">
@@ -5097,28 +5152,28 @@
         <v>1239</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D241" s="25"/>
       <c r="E241" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B242" s="6">
         <v>1240</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5133,12 +5188,12 @@
       </c>
       <c r="D243" s="25"/>
       <c r="E243" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B244" s="6">
         <v>1242</v>
@@ -5174,7 +5229,7 @@
         <v>1244</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D246" s="25"/>
       <c r="E246" s="15" t="s">
@@ -5198,19 +5253,19 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B248" s="6">
         <v>1246</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5225,24 +5280,24 @@
       </c>
       <c r="D249" s="25"/>
       <c r="E249" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B250" s="6">
         <v>1248</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5257,7 +5312,7 @@
       </c>
       <c r="D251" s="25"/>
       <c r="E251" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5304,7 +5359,7 @@
       <c r="D255" s="25"/>
       <c r="E255" s="14"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" ht="16.2" thickBot="1">
       <c r="A256" s="6"/>
       <c r="B256" s="6">
         <v>1254</v>
@@ -5316,20 +5371,20 @@
       <c r="E256" s="14"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="12" t="s">
+      <c r="A257" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="B257" s="6">
+      <c r="B257" s="39">
         <v>1255</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="C257" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="D257" s="25" t="s">
+      <c r="D257" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="E257" s="14" t="s">
-        <v>467</v>
+      <c r="E257" s="42" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5373,7 +5428,7 @@
         <v>261</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E260" s="14"/>
     </row>
@@ -5385,10 +5440,10 @@
         <v>1259</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E261" s="14"/>
     </row>
@@ -5403,7 +5458,7 @@
         <v>258</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E262" s="14"/>
     </row>
@@ -5418,7 +5473,7 @@
         <v>259</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E263" s="14"/>
     </row>
@@ -5433,7 +5488,7 @@
         <v>260</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E264" s="14"/>
     </row>
@@ -5448,10 +5503,10 @@
         <v>252</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E265" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5462,13 +5517,13 @@
         <v>1264</v>
       </c>
       <c r="C266" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D266" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="D266" s="25" t="s">
+      <c r="E266" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="E266" s="14" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5479,13 +5534,13 @@
         <v>1265</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D267" s="25" t="s">
         <v>268</v>
       </c>
       <c r="E267" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5496,13 +5551,13 @@
         <v>1266</v>
       </c>
       <c r="C268" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D268" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="D268" s="25" t="s">
-        <v>274</v>
-      </c>
       <c r="E268" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5528,18 +5583,18 @@
         <v>1268</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D270" s="25" t="s">
         <v>269</v>
       </c>
       <c r="E270" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B271" s="6">
         <v>1269</v>
@@ -5564,7 +5619,7 @@
         <v>236</v>
       </c>
       <c r="E272" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5595,7 +5650,7 @@
         <v>26</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E274" s="14"/>
     </row>
@@ -5607,11 +5662,11 @@
         <v>1273</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D275" s="25"/>
       <c r="E275" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5622,16 +5677,16 @@
         <v>1274</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D276" s="25"/>
       <c r="E276" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B277" s="6">
         <v>1275</v>
@@ -5640,10 +5695,10 @@
         <v>261</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E277" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5654,10 +5709,10 @@
         <v>1276</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E278" s="14"/>
     </row>
@@ -5669,10 +5724,10 @@
         <v>1277</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E279" s="14"/>
     </row>
@@ -5684,10 +5739,10 @@
         <v>1278</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E280" s="14"/>
     </row>
@@ -5699,10 +5754,10 @@
         <v>1279</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E281" s="14"/>
     </row>
@@ -5714,10 +5769,10 @@
         <v>1280</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E282" s="14"/>
     </row>
@@ -5729,10 +5784,10 @@
         <v>1281</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E283" s="14"/>
     </row>
@@ -5744,10 +5799,10 @@
         <v>1282</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E284" s="14"/>
     </row>
@@ -5763,24 +5818,24 @@
       </c>
       <c r="D285" s="25"/>
       <c r="E285" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B286" s="6">
         <v>1284</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5791,10 +5846,10 @@
         <v>1285</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E287" s="14"/>
     </row>
@@ -5806,13 +5861,13 @@
         <v>1286</v>
       </c>
       <c r="C288" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D288" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D288" s="25" t="s">
+      <c r="E288" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="E288" s="14" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5823,13 +5878,13 @@
         <v>1287</v>
       </c>
       <c r="C289" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D289" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D289" s="25" t="s">
-        <v>287</v>
-      </c>
       <c r="E289" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5840,13 +5895,13 @@
         <v>1288</v>
       </c>
       <c r="C290" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D290" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="D290" s="25" t="s">
+      <c r="E290" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="E290" s="14" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5857,13 +5912,13 @@
         <v>1289</v>
       </c>
       <c r="C291" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D291" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="E291" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5874,10 +5929,10 @@
         <v>1290</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E292" s="4"/>
     </row>
@@ -5889,13 +5944,13 @@
         <v>1291</v>
       </c>
       <c r="C293" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D293" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="D293" s="25" t="s">
+      <c r="E293" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="E293" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5909,10 +5964,10 @@
         <v>46</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E294" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5989,7 +6044,7 @@
         <v>221</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6005,18 +6060,18 @@
       <c r="D300" s="25"/>
       <c r="E300" s="14"/>
     </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B301" s="6">
+    <row r="301" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A301" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B301" s="18">
         <v>1299</v>
       </c>
-      <c r="C301" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="D301" s="25"/>
-      <c r="E301" s="4" t="s">
+      <c r="C301" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D301" s="35"/>
+      <c r="E301" s="44" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6090,7 +6145,7 @@
         <v>269</v>
       </c>
       <c r="E306" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="31.2">
@@ -6105,7 +6160,7 @@
         <v>133</v>
       </c>
       <c r="E307" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6120,7 +6175,7 @@
         <v>132</v>
       </c>
       <c r="E308" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6174,7 +6229,7 @@
         <v>172</v>
       </c>
       <c r="E312" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6196,11 +6251,11 @@
         <v>1312</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D314" s="25"/>
       <c r="E314" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6294,7 +6349,7 @@
         <v>132</v>
       </c>
       <c r="E322" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6325,7 +6380,7 @@
         <v>174</v>
       </c>
       <c r="D324" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E324" s="14" t="s">
         <v>175</v>
@@ -6360,7 +6415,7 @@
         <v>239</v>
       </c>
       <c r="E326" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6377,7 +6432,7 @@
         <v>120</v>
       </c>
       <c r="E327" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6424,7 +6479,7 @@
         <v>179</v>
       </c>
       <c r="E330" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6435,7 +6490,7 @@
         <v>1329</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D331" s="24" t="s">
         <v>180</v>
@@ -6458,12 +6513,12 @@
         <v>181</v>
       </c>
       <c r="E332" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B333" s="6">
         <v>1331</v>
@@ -6493,7 +6548,7 @@
     </row>
     <row r="335" spans="1:5" ht="31.2">
       <c r="A335" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B335" s="6">
         <v>1333</v>
@@ -6505,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="E335" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6522,10 +6577,10 @@
         <v>239</v>
       </c>
       <c r="E336" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337" s="6">
         <v>15</v>
       </c>
@@ -6542,7 +6597,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:6">
       <c r="A338" s="6">
         <v>16</v>
       </c>
@@ -6556,8 +6611,9 @@
       <c r="E338" s="15" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="F338" s="13"/>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339" s="6">
         <v>17</v>
       </c>
@@ -6572,7 +6628,7 @@
       </c>
       <c r="E339" s="14"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:6">
       <c r="A340" s="17">
         <v>18</v>
       </c>
@@ -6586,10 +6642,10 @@
         <v>179</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" s="17">
         <v>19</v>
       </c>
@@ -6599,10 +6655,10 @@
       <c r="C341" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D341" s="25"/>
+      <c r="D341" s="13"/>
       <c r="E341" s="14"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:6">
       <c r="A342" s="17">
         <v>20</v>
       </c>
@@ -6610,16 +6666,16 @@
         <v>1340</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D342" s="24" t="s">
         <v>180</v>
       </c>
       <c r="E342" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343" s="17">
         <v>21</v>
       </c>
@@ -6627,24 +6683,24 @@
         <v>1341</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="D343" s="24" t="s">
         <v>181</v>
       </c>
       <c r="E343" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B344" s="6">
         <v>1342</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D344" s="25" t="s">
         <v>271</v>
@@ -6653,7 +6709,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:6">
       <c r="A345" s="17">
         <v>23</v>
       </c>
@@ -6668,7 +6724,7 @@
       </c>
       <c r="E345" s="14"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:6">
       <c r="A346" s="17">
         <v>24</v>
       </c>
@@ -6676,14 +6732,14 @@
         <v>1344</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D346" s="25" t="s">
         <v>124</v>
       </c>
       <c r="E346" s="14"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:6">
       <c r="A347" s="17">
         <v>25</v>
       </c>
@@ -6691,14 +6747,14 @@
         <v>1345</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D347" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E347" s="14"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:6">
       <c r="A348" s="17">
         <v>26</v>
       </c>
@@ -6706,44 +6762,42 @@
         <v>1346</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D348" s="25"/>
       <c r="E348" s="14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="17" t="s">
-        <v>381</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="17">
+        <v>27</v>
       </c>
       <c r="B349" s="6">
         <v>1347</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D349" s="25" t="s">
-        <v>100</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D349" s="13"/>
       <c r="E349" s="14"/>
     </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="17">
-        <v>28</v>
+    <row r="350" spans="1:6">
+      <c r="A350" s="17" t="s">
+        <v>446</v>
       </c>
       <c r="B350" s="6">
         <v>1348</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E350" s="14"/>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:6">
       <c r="A351" s="17">
         <v>29</v>
       </c>
@@ -6751,14 +6805,14 @@
         <v>1349</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D351" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E351" s="14"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:6">
       <c r="A352" s="17">
         <v>30</v>
       </c>
@@ -6766,10 +6820,10 @@
         <v>1350</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E352" s="14"/>
     </row>
@@ -6781,14 +6835,12 @@
         <v>1351</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="D353" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E353" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E353" s="14"/>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="17">
@@ -6798,12 +6850,14 @@
         <v>1352</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>383</v>
+        <v>235</v>
       </c>
       <c r="D354" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="E354" s="14"/>
+        <v>142</v>
+      </c>
+      <c r="E354" s="14" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="17">
@@ -6813,14 +6867,12 @@
         <v>1353</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D355" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="E355" s="14" t="s">
-        <v>395</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="E355" s="14"/>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="17">
@@ -6830,13 +6882,13 @@
         <v>1354</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>52</v>
+        <v>380</v>
       </c>
       <c r="D356" s="25" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="E356" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -6847,10 +6899,14 @@
         <v>1355</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D357" s="25"/>
-      <c r="E357" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="D357" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E357" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="17">
@@ -6860,11 +6916,9 @@
         <v>1356</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="D358" s="25" t="s">
-        <v>460</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D358" s="25"/>
       <c r="E358" s="14"/>
     </row>
     <row r="359" spans="1:7">
@@ -6875,10 +6929,10 @@
         <v>1357</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="D359" s="25" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="E359" s="14"/>
     </row>
@@ -6890,10 +6944,10 @@
         <v>1358</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>54</v>
+        <v>398</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="E360" s="14"/>
     </row>
@@ -6905,10 +6959,10 @@
         <v>1359</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E361" s="14"/>
     </row>
@@ -6920,38 +6974,42 @@
         <v>1360</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="D362" s="25"/>
-      <c r="E362" s="14" t="s">
-        <v>397</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D362" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="E362" s="14"/>
     </row>
     <row r="363" spans="1:7">
-      <c r="A363" s="17" t="s">
-        <v>394</v>
+      <c r="A363" s="17">
+        <v>41</v>
       </c>
       <c r="B363" s="6">
         <v>1361</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>186</v>
+        <v>438</v>
       </c>
       <c r="D363" s="25"/>
       <c r="E363" s="14" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="17"/>
+      <c r="A364" s="17" t="s">
+        <v>390</v>
+      </c>
       <c r="B364" s="6">
         <v>1362</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D364" s="25"/>
-      <c r="E364" s="14"/>
+      <c r="E364" s="14" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="17"/>
@@ -7023,7 +7081,7 @@
       <c r="D370" s="25"/>
       <c r="E370" s="14"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" ht="16.2" thickBot="1">
       <c r="A371" s="17"/>
       <c r="B371" s="6">
         <v>1369</v>
@@ -7035,20 +7093,20 @@
       <c r="E371" s="14"/>
     </row>
     <row r="372" spans="1:7">
-      <c r="A372" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B372" s="6">
+      <c r="A372" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="B372" s="39">
         <v>1370</v>
       </c>
-      <c r="C372" s="13" t="s">
+      <c r="C372" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D372" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="E372" s="14" t="s">
-        <v>431</v>
+      <c r="D372" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="E372" s="42" t="s">
+        <v>424</v>
       </c>
       <c r="F372" s="13"/>
       <c r="G372" s="13"/>
@@ -7067,7 +7125,7 @@
         <v>270</v>
       </c>
       <c r="E373" s="14" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F373" s="13"/>
       <c r="G373" s="13"/>
@@ -7080,13 +7138,13 @@
         <v>1372</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D374" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E374" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F374" s="13"/>
       <c r="G374" s="13"/>
@@ -7099,13 +7157,13 @@
         <v>1373</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E375" s="14" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F375" s="13"/>
       <c r="G375" s="13"/>
@@ -7117,13 +7175,13 @@
       <c r="B376" s="6">
         <v>1374</v>
       </c>
-      <c r="C376" s="13" t="s">
+      <c r="C376" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D376" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E376" s="14"/>
+      <c r="D376" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E376" s="22"/>
       <c r="F376" s="13"/>
       <c r="G376" s="13"/>
     </row>
@@ -7134,13 +7192,13 @@
       <c r="B377" s="6">
         <v>1375</v>
       </c>
-      <c r="C377" s="13" t="s">
+      <c r="C377" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D377" s="25" t="s">
+      <c r="D377" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E377" s="14"/>
+      <c r="E377" s="22"/>
       <c r="F377" s="13"/>
       <c r="G377" s="13"/>
     </row>
@@ -7151,28 +7209,34 @@
       <c r="B378" s="6">
         <v>1376</v>
       </c>
-      <c r="C378" s="13" t="s">
+      <c r="C378" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D378" s="25"/>
-      <c r="E378" s="14" t="s">
-        <v>401</v>
+      <c r="D378" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E378" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="F378" s="13"/>
       <c r="G378" s="13"/>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="6">
-        <v>7</v>
+      <c r="A379" s="37" t="s">
+        <v>458</v>
       </c>
       <c r="B379" s="6">
         <v>1377</v>
       </c>
-      <c r="C379" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="D379" s="25"/>
-      <c r="E379" s="4"/>
+      <c r="C379" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D379" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="E379" s="36" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="6">
@@ -7181,24 +7245,31 @@
       <c r="B380" s="6">
         <v>1378</v>
       </c>
-      <c r="C380" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D380" s="25"/>
-      <c r="E380" s="14"/>
+      <c r="C380" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D380" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E380" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="G380" s="8"/>
     </row>
     <row r="381" spans="1:7">
-      <c r="A381" s="17" t="s">
-        <v>435</v>
+      <c r="A381" s="6">
+        <v>9</v>
       </c>
       <c r="B381" s="6">
         <v>1379</v>
       </c>
-      <c r="C381" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D381" s="25"/>
-      <c r="E381" s="14"/>
+      <c r="C381" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D381" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E381" s="22"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="6">
@@ -7207,11 +7278,13 @@
       <c r="B382" s="6">
         <v>1380</v>
       </c>
-      <c r="C382" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D382" s="25"/>
-      <c r="E382" s="14"/>
+      <c r="C382" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D382" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="E382" s="36"/>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="6">
@@ -7220,15 +7293,14 @@
       <c r="B383" s="6">
         <v>1381</v>
       </c>
-      <c r="C383" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D383" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="E383" s="14" t="s">
-        <v>438</v>
-      </c>
+      <c r="C383" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D383" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E383" s="36"/>
+      <c r="G383" s="13"/>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="6">
@@ -7237,26 +7309,30 @@
       <c r="B384" s="6">
         <v>1382</v>
       </c>
-      <c r="C384" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D384" s="25"/>
-      <c r="E384" s="14" t="s">
-        <v>432</v>
-      </c>
+      <c r="C384" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D384" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="E384" s="22"/>
+      <c r="G384" s="13"/>
     </row>
     <row r="385" spans="1:7">
-      <c r="A385" s="17" t="s">
-        <v>459</v>
+      <c r="A385" s="6">
+        <v>13</v>
       </c>
       <c r="B385" s="6">
         <v>1383</v>
       </c>
-      <c r="C385" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D385" s="25"/>
-      <c r="E385" s="14"/>
+      <c r="C385" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D385" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E385" s="22"/>
+      <c r="G385" s="13"/>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="6">
@@ -7265,11 +7341,13 @@
       <c r="B386" s="6">
         <v>1384</v>
       </c>
-      <c r="C386" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D386" s="25"/>
-      <c r="E386" s="14"/>
+      <c r="C386" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D386" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="E386" s="22"/>
       <c r="G386" s="13"/>
     </row>
     <row r="387" spans="1:7">
@@ -7279,11 +7357,13 @@
       <c r="B387" s="6">
         <v>1385</v>
       </c>
-      <c r="C387" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D387" s="25"/>
-      <c r="E387" s="33"/>
+      <c r="C387" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D387" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E387" s="22"/>
       <c r="G387" s="13"/>
     </row>
     <row r="388" spans="1:7">
@@ -7293,11 +7373,13 @@
       <c r="B388" s="6">
         <v>1386</v>
       </c>
-      <c r="C388" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D388" s="25"/>
-      <c r="E388" s="14"/>
+      <c r="C388" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D388" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="E388" s="22"/>
       <c r="G388" s="13"/>
     </row>
     <row r="389" spans="1:7">
@@ -7307,11 +7389,14 @@
       <c r="B389" s="6">
         <v>1387</v>
       </c>
-      <c r="C389" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D389" s="25"/>
-      <c r="E389" s="14"/>
+      <c r="C389" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D389" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E389" s="22"/>
+      <c r="G389" s="13"/>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="6">
@@ -7320,15 +7405,13 @@
       <c r="B390" s="6">
         <v>1388</v>
       </c>
-      <c r="C390" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D390" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="E390" s="4" t="s">
-        <v>439</v>
-      </c>
+      <c r="C390" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D390" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E390" s="22"/>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="6">
@@ -7337,14 +7420,14 @@
       <c r="B391" s="6">
         <v>1389</v>
       </c>
-      <c r="C391" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D391" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E391" s="4" t="s">
-        <v>135</v>
+      <c r="C391" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D391" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="E391" s="22" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -7354,15 +7437,11 @@
       <c r="B392" s="6">
         <v>1390</v>
       </c>
-      <c r="C392" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D392" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="E392" s="4" t="s">
-        <v>440</v>
-      </c>
+      <c r="C392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D392" s="34"/>
+      <c r="E392" s="22"/>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="6">
@@ -7371,28 +7450,30 @@
       <c r="B393" s="6">
         <v>1391</v>
       </c>
-      <c r="C393" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D393" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="E393" s="4"/>
+      <c r="C393" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D393" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="E393" s="22"/>
     </row>
     <row r="394" spans="1:7">
-      <c r="A394" s="6">
-        <v>22</v>
+      <c r="A394" s="17" t="s">
+        <v>465</v>
       </c>
       <c r="B394" s="6">
         <v>1392</v>
       </c>
-      <c r="C394" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="D394" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="E394" s="4"/>
+      <c r="C394" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D394" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E394" s="36" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="6">
@@ -7401,13 +7482,11 @@
       <c r="B395" s="6">
         <v>1393</v>
       </c>
-      <c r="C395" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D395" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="E395" s="4"/>
+      <c r="C395" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D395" s="34"/>
+      <c r="E395" s="36"/>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="6">
@@ -7416,13 +7495,13 @@
       <c r="B396" s="6">
         <v>1394</v>
       </c>
-      <c r="C396" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D396" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="E396" s="4"/>
+      <c r="C396" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D396" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E396" s="36"/>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="6">
@@ -7431,13 +7510,13 @@
       <c r="B397" s="6">
         <v>1395</v>
       </c>
-      <c r="C397" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D397" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="E397" s="4"/>
+      <c r="C397" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D397" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="E397" s="36"/>
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="6">
@@ -7446,13 +7525,13 @@
       <c r="B398" s="6">
         <v>1396</v>
       </c>
-      <c r="C398" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="D398" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="E398" s="4"/>
+      <c r="C398" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D398" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="E398" s="36"/>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="6">
@@ -7461,13 +7540,13 @@
       <c r="B399" s="6">
         <v>1397</v>
       </c>
-      <c r="C399" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D399" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="E399" s="4"/>
+      <c r="C399" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="D399" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="E399" s="36"/>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="6">
@@ -7476,13 +7555,13 @@
       <c r="B400" s="6">
         <v>1398</v>
       </c>
-      <c r="C400" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D400" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="E400" s="4"/>
+      <c r="C400" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D400" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="E400" s="36"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="6">
@@ -7491,337 +7570,341 @@
       <c r="B401" s="6">
         <v>1399</v>
       </c>
-      <c r="C401" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D401" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="E401" s="4"/>
+      <c r="C401" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D401" s="34"/>
+      <c r="E401" s="36"/>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="6">
-        <v>30</v>
+      <c r="A402" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="B402" s="6">
         <v>1400</v>
       </c>
-      <c r="C402" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D402" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E402" s="4"/>
+      <c r="C402" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D402" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="E402" s="36" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="6">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B403" s="6">
         <v>1401</v>
       </c>
-      <c r="C403" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D403" s="25"/>
-      <c r="E403" s="4"/>
+      <c r="C403" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="D403" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="E403" s="36"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="6">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B404" s="6">
         <v>1402</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>429</v>
+        <v>320</v>
       </c>
       <c r="D404" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="E404" s="15" t="s">
-        <v>468</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="E404" s="4"/>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="6">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B405" s="6">
         <v>1403</v>
       </c>
-      <c r="C405" s="13" t="s">
-        <v>444</v>
+      <c r="C405" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="D405" s="25"/>
       <c r="E405" s="4"/>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="6">
-        <v>34</v>
+      <c r="A406" s="17" t="s">
+        <v>470</v>
       </c>
       <c r="B406" s="6">
         <v>1404</v>
       </c>
       <c r="C406" s="13" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="D406" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="E406" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="6">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B407" s="6">
         <v>1405</v>
       </c>
       <c r="C407" s="13" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D407" s="25"/>
       <c r="E407" s="4"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="6">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B408" s="6">
         <v>1406</v>
       </c>
       <c r="C408" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D408" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="E408" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="D408" s="25"/>
+      <c r="E408" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="6">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B409" s="6">
         <v>1407</v>
       </c>
       <c r="C409" s="13" t="s">
-        <v>444</v>
+        <v>74</v>
       </c>
       <c r="D409" s="25"/>
-      <c r="E409" s="4"/>
+      <c r="E409" s="14"/>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="6">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B410" s="6">
         <v>1408</v>
       </c>
-      <c r="C410" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D410" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="E410" s="4"/>
+      <c r="C410" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="D410" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="E410" s="22" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="6">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B411" s="6">
         <v>1409</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="D411" s="25"/>
-      <c r="E411" s="4"/>
+      <c r="E411" s="36" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B412" s="6">
         <v>1410</v>
       </c>
       <c r="C412" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="D412" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="E412" s="4"/>
+        <v>471</v>
+      </c>
+      <c r="D412" s="25"/>
+      <c r="E412" s="14" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="6">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B413" s="6">
         <v>1411</v>
       </c>
-      <c r="C413" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="D413" s="25"/>
-      <c r="E413" s="4"/>
+      <c r="C413" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D413" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="6">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B414" s="6">
         <v>1412</v>
       </c>
       <c r="C414" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D414" s="25"/>
+        <v>450</v>
+      </c>
+      <c r="D414" s="34" t="s">
+        <v>451</v>
+      </c>
       <c r="E414" s="4"/>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="6">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B415" s="6">
         <v>1413</v>
       </c>
       <c r="C415" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D415" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E415" s="15" t="s">
-        <v>454</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="D415" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="E415" s="4"/>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="6">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B416" s="6">
         <v>1414</v>
       </c>
       <c r="C416" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D416" s="25"/>
-      <c r="E416" s="14"/>
+        <v>454</v>
+      </c>
+      <c r="D416" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="E416" s="4"/>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="6">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B417" s="6">
         <v>1415</v>
       </c>
-      <c r="C417" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D417" s="25"/>
-      <c r="E417" s="14"/>
+      <c r="C417" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D417" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E417" s="4"/>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="6">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B418" s="6">
         <v>1416</v>
       </c>
-      <c r="C418" s="21" t="s">
-        <v>75</v>
+      <c r="C418" s="13" t="s">
+        <v>472</v>
       </c>
       <c r="D418" s="25"/>
       <c r="E418" s="4"/>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="6">
-        <v>47</v>
-      </c>
+      <c r="A419" s="6"/>
       <c r="B419" s="6">
         <v>1417</v>
       </c>
       <c r="C419" s="21" t="s">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="D419" s="25"/>
-      <c r="E419" s="15" t="s">
-        <v>458</v>
-      </c>
+      <c r="E419" s="4"/>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="6">
-        <v>48</v>
-      </c>
+      <c r="A420" s="6"/>
       <c r="B420" s="6">
         <v>1418</v>
       </c>
       <c r="C420" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D420" s="25"/>
-      <c r="E420" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="D420" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E420" s="15" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="6">
-        <v>49</v>
-      </c>
+      <c r="A421" s="6"/>
       <c r="B421" s="6">
         <v>1419</v>
       </c>
       <c r="C421" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D421" s="25"/>
-      <c r="E421" s="15"/>
+      <c r="E421" s="14"/>
     </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="6">
-        <v>50</v>
-      </c>
+      <c r="A422" s="6"/>
       <c r="B422" s="6">
         <v>1420</v>
       </c>
       <c r="C422" s="21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D422" s="25"/>
-      <c r="E422" s="15"/>
+      <c r="E422" s="14"/>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="6">
-        <v>51</v>
-      </c>
+      <c r="A423" s="6"/>
       <c r="B423" s="6">
         <v>1421</v>
       </c>
       <c r="C423" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D423" s="25"/>
-      <c r="E423" s="15"/>
+      <c r="E423" s="4"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="6">
-        <v>52</v>
-      </c>
+      <c r="A424" s="6"/>
       <c r="B424" s="6">
         <v>1422</v>
       </c>
       <c r="C424" s="21" t="s">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="D424" s="25"/>
-      <c r="E424" s="15"/>
+      <c r="E424" s="15" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="6">
-        <v>53</v>
-      </c>
+      <c r="A425" s="6"/>
       <c r="B425" s="6">
         <v>1423</v>
       </c>
@@ -7832,22 +7915,18 @@
       <c r="E425" s="15"/>
     </row>
     <row r="426" spans="1:5">
-      <c r="A426" s="6">
-        <v>54</v>
-      </c>
+      <c r="A426" s="6"/>
       <c r="B426" s="6">
         <v>1424</v>
       </c>
       <c r="C426" s="21" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D426" s="25"/>
       <c r="E426" s="15"/>
     </row>
     <row r="427" spans="1:5">
-      <c r="A427" s="6">
-        <v>55</v>
-      </c>
+      <c r="A427" s="6"/>
       <c r="B427" s="6">
         <v>1425</v>
       </c>
@@ -7858,87 +7937,73 @@
       <c r="E427" s="15"/>
     </row>
     <row r="428" spans="1:5">
-      <c r="A428" s="6">
-        <v>56</v>
-      </c>
+      <c r="A428" s="6"/>
       <c r="B428" s="6">
         <v>1426</v>
       </c>
       <c r="C428" s="21" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D428" s="25"/>
       <c r="E428" s="15"/>
     </row>
     <row r="429" spans="1:5">
-      <c r="A429" s="6">
-        <v>57</v>
-      </c>
+      <c r="A429" s="6"/>
       <c r="B429" s="6">
         <v>1427</v>
       </c>
       <c r="C429" s="21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D429" s="25"/>
       <c r="E429" s="15"/>
     </row>
     <row r="430" spans="1:5">
-      <c r="A430" s="6">
-        <v>58</v>
-      </c>
+      <c r="A430" s="6"/>
       <c r="B430" s="6">
         <v>1428</v>
       </c>
       <c r="C430" s="21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D430" s="25"/>
       <c r="E430" s="15"/>
     </row>
     <row r="431" spans="1:5">
-      <c r="A431" s="6">
-        <v>59</v>
-      </c>
+      <c r="A431" s="6"/>
       <c r="B431" s="6">
         <v>1429</v>
       </c>
       <c r="C431" s="21" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D431" s="25"/>
       <c r="E431" s="15"/>
     </row>
     <row r="432" spans="1:5">
-      <c r="A432" s="6">
-        <v>60</v>
-      </c>
+      <c r="A432" s="6"/>
       <c r="B432" s="6">
         <v>1430</v>
       </c>
       <c r="C432" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D432" s="25"/>
       <c r="E432" s="15"/>
     </row>
     <row r="433" spans="1:5">
-      <c r="A433" s="6">
-        <v>61</v>
-      </c>
+      <c r="A433" s="6"/>
       <c r="B433" s="6">
         <v>1431</v>
       </c>
       <c r="C433" s="21" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D433" s="25"/>
       <c r="E433" s="15"/>
     </row>
     <row r="434" spans="1:5">
-      <c r="A434" s="6">
-        <v>62</v>
-      </c>
+      <c r="A434" s="6"/>
       <c r="B434" s="6">
         <v>1432</v>
       </c>
@@ -7949,24 +8014,18 @@
       <c r="E434" s="15"/>
     </row>
     <row r="435" spans="1:5">
-      <c r="A435" s="6">
-        <v>63</v>
-      </c>
+      <c r="A435" s="6"/>
       <c r="B435" s="6">
         <v>1433</v>
       </c>
       <c r="C435" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D435" s="25"/>
-      <c r="E435" s="15" t="s">
-        <v>457</v>
-      </c>
+      <c r="E435" s="15"/>
     </row>
     <row r="436" spans="1:5">
-      <c r="A436" s="6">
-        <v>64</v>
-      </c>
+      <c r="A436" s="6"/>
       <c r="B436" s="6">
         <v>1434</v>
       </c>
@@ -7977,191 +8036,163 @@
       <c r="E436" s="15"/>
     </row>
     <row r="437" spans="1:5">
-      <c r="A437" s="6">
-        <v>65</v>
-      </c>
+      <c r="A437" s="6"/>
       <c r="B437" s="6">
         <v>1435</v>
       </c>
       <c r="C437" s="21" t="s">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="D437" s="25"/>
       <c r="E437" s="15"/>
     </row>
     <row r="438" spans="1:5">
-      <c r="A438" s="6">
-        <v>66</v>
-      </c>
+      <c r="A438" s="6"/>
       <c r="B438" s="6">
         <v>1436</v>
       </c>
       <c r="C438" s="21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D438" s="25"/>
-      <c r="E438" s="14"/>
+      <c r="E438" s="15"/>
     </row>
     <row r="439" spans="1:5">
-      <c r="A439" s="6">
-        <v>67</v>
-      </c>
+      <c r="A439" s="6"/>
       <c r="B439" s="6">
         <v>1437</v>
       </c>
       <c r="C439" s="21" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D439" s="25"/>
-      <c r="E439" s="14"/>
+      <c r="E439" s="15"/>
     </row>
     <row r="440" spans="1:5">
-      <c r="A440" s="6">
-        <v>68</v>
-      </c>
+      <c r="A440" s="6"/>
       <c r="B440" s="6">
         <v>1438</v>
       </c>
       <c r="C440" s="21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D440" s="25"/>
-      <c r="E440" s="14"/>
+      <c r="E440" s="15" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="441" spans="1:5">
-      <c r="A441" s="6">
-        <v>69</v>
-      </c>
+      <c r="A441" s="6"/>
       <c r="B441" s="6">
         <v>1439</v>
       </c>
       <c r="C441" s="21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D441" s="25"/>
-      <c r="E441" s="14"/>
+      <c r="E441" s="15"/>
     </row>
     <row r="442" spans="1:5">
-      <c r="A442" s="6">
-        <v>70</v>
-      </c>
+      <c r="A442" s="6"/>
       <c r="B442" s="6">
         <v>1440</v>
       </c>
       <c r="C442" s="21" t="s">
-        <v>75</v>
+        <v>433</v>
       </c>
       <c r="D442" s="25"/>
-      <c r="E442" s="14"/>
+      <c r="E442" s="15"/>
     </row>
     <row r="443" spans="1:5">
-      <c r="A443" s="6">
-        <v>71</v>
-      </c>
+      <c r="A443" s="6"/>
       <c r="B443" s="6">
         <v>1441</v>
       </c>
       <c r="C443" s="21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D443" s="25"/>
       <c r="E443" s="14"/>
     </row>
     <row r="444" spans="1:5">
-      <c r="A444" s="6">
-        <v>72</v>
-      </c>
+      <c r="A444" s="6"/>
       <c r="B444" s="6">
         <v>1442</v>
       </c>
       <c r="C444" s="21" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="D444" s="25"/>
       <c r="E444" s="14"/>
     </row>
     <row r="445" spans="1:5">
-      <c r="A445" s="6">
-        <v>73</v>
-      </c>
+      <c r="A445" s="6"/>
       <c r="B445" s="6">
         <v>1443</v>
       </c>
       <c r="C445" s="21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D445" s="25"/>
       <c r="E445" s="14"/>
     </row>
     <row r="446" spans="1:5">
-      <c r="A446" s="6">
-        <v>74</v>
-      </c>
+      <c r="A446" s="6"/>
       <c r="B446" s="6">
         <v>1444</v>
       </c>
       <c r="C446" s="21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D446" s="25"/>
       <c r="E446" s="14"/>
     </row>
     <row r="447" spans="1:5">
-      <c r="A447" s="6">
-        <v>75</v>
-      </c>
+      <c r="A447" s="6"/>
       <c r="B447" s="6">
         <v>1445</v>
       </c>
       <c r="C447" s="21" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D447" s="25"/>
       <c r="E447" s="14"/>
     </row>
     <row r="448" spans="1:5">
-      <c r="A448" s="6">
-        <v>76</v>
-      </c>
+      <c r="A448" s="6"/>
       <c r="B448" s="6">
         <v>1446</v>
       </c>
       <c r="C448" s="21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D448" s="25"/>
       <c r="E448" s="14"/>
     </row>
     <row r="449" spans="1:5">
-      <c r="A449" s="6">
-        <v>77</v>
-      </c>
+      <c r="A449" s="6"/>
       <c r="B449" s="6">
         <v>1447</v>
       </c>
       <c r="C449" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D449" s="25"/>
       <c r="E449" s="14"/>
     </row>
     <row r="450" spans="1:5">
-      <c r="A450" s="6">
-        <v>78</v>
-      </c>
+      <c r="A450" s="6"/>
       <c r="B450" s="6">
         <v>1448</v>
       </c>
       <c r="C450" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D450" s="25"/>
       <c r="E450" s="14"/>
     </row>
     <row r="451" spans="1:5">
-      <c r="A451" s="6">
-        <v>79</v>
-      </c>
+      <c r="A451" s="6"/>
       <c r="B451" s="6">
         <v>1449</v>
       </c>
@@ -8172,24 +8203,18 @@
       <c r="E451" s="14"/>
     </row>
     <row r="452" spans="1:5">
-      <c r="A452" s="6">
-        <v>80</v>
-      </c>
+      <c r="A452" s="6"/>
       <c r="B452" s="6">
         <v>1450</v>
       </c>
       <c r="C452" s="21" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D452" s="25"/>
-      <c r="E452" s="14" t="s">
-        <v>198</v>
-      </c>
+      <c r="E452" s="14"/>
     </row>
     <row r="453" spans="1:5">
-      <c r="A453" s="6">
-        <v>81</v>
-      </c>
+      <c r="A453" s="6"/>
       <c r="B453" s="6">
         <v>1451</v>
       </c>
@@ -8200,175 +8225,206 @@
       <c r="E453" s="14"/>
     </row>
     <row r="454" spans="1:5">
-      <c r="A454" s="6">
-        <v>82</v>
-      </c>
+      <c r="A454" s="6"/>
       <c r="B454" s="6">
         <v>1452</v>
       </c>
       <c r="C454" s="21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D454" s="25"/>
       <c r="E454" s="14"/>
     </row>
     <row r="455" spans="1:5">
-      <c r="A455" s="6">
-        <v>83</v>
-      </c>
+      <c r="A455" s="6"/>
       <c r="B455" s="6">
         <v>1453</v>
       </c>
-      <c r="C455" s="13" t="s">
-        <v>75</v>
+      <c r="C455" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="D455" s="25"/>
       <c r="E455" s="14"/>
     </row>
     <row r="456" spans="1:5">
-      <c r="A456" s="6">
-        <v>84</v>
-      </c>
+      <c r="A456" s="6"/>
       <c r="B456" s="6">
         <v>1454</v>
       </c>
-      <c r="C456" s="13" t="s">
-        <v>90</v>
+      <c r="C456" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="D456" s="25"/>
       <c r="E456" s="14"/>
     </row>
     <row r="457" spans="1:5">
-      <c r="A457" s="6">
-        <v>85</v>
-      </c>
+      <c r="A457" s="6"/>
       <c r="B457" s="6">
         <v>1455</v>
       </c>
-      <c r="C457" s="13" t="s">
-        <v>75</v>
+      <c r="C457" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D457" s="25"/>
-      <c r="E457" s="14"/>
+      <c r="E457" s="14" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="458" spans="1:5">
-      <c r="A458" s="6">
-        <v>86</v>
-      </c>
+      <c r="A458" s="6"/>
       <c r="B458" s="6">
         <v>1456</v>
       </c>
-      <c r="C458" s="13" t="s">
-        <v>86</v>
+      <c r="C458" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="D458" s="25"/>
       <c r="E458" s="14"/>
     </row>
     <row r="459" spans="1:5">
-      <c r="A459" s="6">
-        <v>87</v>
-      </c>
+      <c r="A459" s="6"/>
       <c r="B459" s="6">
         <v>1457</v>
       </c>
-      <c r="C459" s="13" t="s">
-        <v>75</v>
+      <c r="C459" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="D459" s="25"/>
       <c r="E459" s="14"/>
     </row>
     <row r="460" spans="1:5">
-      <c r="A460" s="6">
-        <v>88</v>
-      </c>
+      <c r="A460" s="6"/>
       <c r="B460" s="6">
         <v>1458</v>
       </c>
       <c r="C460" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D460" s="25"/>
       <c r="E460" s="14"/>
     </row>
     <row r="461" spans="1:5">
-      <c r="A461" s="6">
-        <v>89</v>
-      </c>
+      <c r="A461" s="6"/>
       <c r="B461" s="6">
         <v>1459</v>
       </c>
       <c r="C461" s="13" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="14"/>
     </row>
     <row r="462" spans="1:5">
-      <c r="A462" s="6">
-        <v>90</v>
-      </c>
+      <c r="A462" s="6"/>
       <c r="B462" s="6">
         <v>1460</v>
       </c>
       <c r="C462" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D462" s="25"/>
       <c r="E462" s="14"/>
     </row>
     <row r="463" spans="1:5">
-      <c r="A463" s="6">
-        <v>91</v>
-      </c>
+      <c r="A463" s="6"/>
       <c r="B463" s="6">
         <v>1461</v>
       </c>
       <c r="C463" s="13" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D463" s="25"/>
       <c r="E463" s="14"/>
     </row>
     <row r="464" spans="1:5">
-      <c r="A464" s="6">
-        <v>92</v>
-      </c>
+      <c r="A464" s="6"/>
       <c r="B464" s="6">
         <v>1462</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="D464" s="25"/>
-      <c r="E464" s="15" t="s">
-        <v>414</v>
-      </c>
+      <c r="E464" s="14"/>
     </row>
     <row r="465" spans="1:5">
-      <c r="A465" s="6">
-        <v>93</v>
-      </c>
+      <c r="A465" s="6"/>
       <c r="B465" s="6">
         <v>1463</v>
       </c>
       <c r="C465" s="13" t="s">
-        <v>411</v>
+        <v>83</v>
       </c>
       <c r="D465" s="25"/>
       <c r="E465" s="14"/>
     </row>
-    <row r="466" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A466" s="18">
-        <v>94</v>
-      </c>
-      <c r="B466" s="18">
+    <row r="466" spans="1:5">
+      <c r="A466" s="6"/>
+      <c r="B466" s="6">
         <v>1464</v>
       </c>
-      <c r="C466" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="D466" s="36"/>
-      <c r="E466" s="20"/>
+      <c r="C466" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D466" s="25"/>
+      <c r="E466" s="14"/>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="6"/>
+      <c r="B467" s="6">
+        <v>1465</v>
+      </c>
+      <c r="C467" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D467" s="25"/>
+      <c r="E467" s="14"/>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="6"/>
+      <c r="B468" s="6">
+        <v>1466</v>
+      </c>
+      <c r="C468" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D468" s="25"/>
+      <c r="E468" s="14"/>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="6"/>
+      <c r="B469" s="6">
+        <v>1467</v>
+      </c>
+      <c r="C469" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D469" s="25"/>
+      <c r="E469" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="6"/>
+      <c r="B470" s="6">
+        <v>1468</v>
+      </c>
+      <c r="C470" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D470" s="25"/>
+      <c r="E470" s="14"/>
+    </row>
+    <row r="471" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A471" s="18"/>
+      <c r="B471" s="6">
+        <v>1469</v>
+      </c>
+      <c r="C471" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D471" s="35"/>
+      <c r="E471" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -8381,7 +8437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D651B19C-10DB-4B8B-8C2C-2D11092AFD47}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -8454,19 +8510,19 @@
     <row r="10" spans="1:2" ht="15.6">
       <c r="A10" s="3"/>
       <c r="B10" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6">
       <c r="A11" s="3"/>
       <c r="B11" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6">
       <c r="A12" s="3"/>
       <c r="B12" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6">
@@ -8478,7 +8534,7 @@
     <row r="14" spans="1:2" ht="15.6">
       <c r="A14" s="3"/>
       <c r="B14" s="30" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6">
@@ -8502,13 +8558,13 @@
     <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="3"/>
       <c r="B18" s="30" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6">
       <c r="A19" s="3"/>
       <c r="B19" s="30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6">
@@ -8526,19 +8582,19 @@
     <row r="22" spans="1:2" ht="15.6">
       <c r="A22" s="3"/>
       <c r="B22" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6">
       <c r="A23" s="3"/>
       <c r="B23" s="31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6">
       <c r="A24" s="3"/>
       <c r="B24" s="31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6">
@@ -8576,7 +8632,7 @@
         <v>550</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.2" thickBot="1">

--- a/CISCSimulator/doc/test_program1_design_FN.xlsx
+++ b/CISCSimulator/doc/test_program1_design_FN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\github\CISC_Machine\CISCSimulator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498DD814-754C-4806-B341-6D15039F2178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BF4EFB-78A4-4919-9A43-471D0509DCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1728" yWindow="0" windowWidth="21312" windowHeight="12960" xr2:uid="{EFBCDC6E-D5C0-4EA5-8F8C-AB656C5046D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="484">
   <si>
     <t xml:space="preserve"> IN 0, 0</t>
   </si>
@@ -102,15 +102,9 @@
     <t>User program</t>
   </si>
   <si>
-    <t>memory[400+21]=R0</t>
-  </si>
-  <si>
     <t>R0=input</t>
   </si>
   <si>
-    <t>memory[400+22]=R0</t>
-  </si>
-  <si>
     <t>TRR 0,2</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>IX1=memory[9]=400</t>
   </si>
   <si>
     <t xml:space="preserve">11 = 600(start of function point)  </t>
@@ -652,13 +643,7 @@
 // call handle error()</t>
   </si>
   <si>
-    <t>//    jump to call prepare atoi() function</t>
-  </si>
-  <si>
     <t>// if (input==',')</t>
-  </si>
-  <si>
-    <t>//   jump to call prepare atoi() function</t>
   </si>
   <si>
     <t>// if (input=='\0')</t>
@@ -803,9 +788,6 @@
     <t>R2=-1</t>
   </si>
   <si>
-    <t>R2 is the value of end of argument, -1</t>
-  </si>
-  <si>
     <t>LDR 1,0,23,I</t>
   </si>
   <si>
@@ -857,9 +839,6 @@
     <t>IX1=mem[520]</t>
   </si>
   <si>
-    <t>get a argument</t>
-  </si>
-  <si>
     <t>R0==-1</t>
   </si>
   <si>
@@ -896,9 +875,6 @@
     <t>R0,R1&lt;=R0*R2</t>
   </si>
   <si>
-    <t>store return value</t>
-  </si>
-  <si>
     <t>LDA 2,0,10</t>
   </si>
   <si>
@@ -908,42 +884,21 @@
     <t>R0=mem[520]</t>
   </si>
   <si>
-    <t>R0 is return value</t>
-  </si>
-  <si>
-    <t>R1=R0*10</t>
-  </si>
-  <si>
     <t>LDX 2,23</t>
   </si>
   <si>
     <t>IX2=520</t>
   </si>
   <si>
-    <t>IX2 is base of local memory</t>
-  </si>
-  <si>
     <t>STR 0,2,0</t>
   </si>
   <si>
     <t>STR 0,2,1</t>
   </si>
   <si>
-    <t>else perform calculation</t>
-  </si>
-  <si>
-    <t>if R0==-1 call return</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
     <t>STR 3,2,0</t>
   </si>
   <si>
-    <t>IX3 is base of this function</t>
-  </si>
-  <si>
     <t>STR 1,2,1</t>
   </si>
   <si>
@@ -956,30 +911,15 @@
     <t>R0=mem[521]</t>
   </si>
   <si>
-    <t>R0 is the argument</t>
-  </si>
-  <si>
-    <t>get an integer</t>
-  </si>
-  <si>
     <t>AMR 1,2,1</t>
   </si>
   <si>
     <t>R1=R1+mem[521]</t>
   </si>
   <si>
-    <t>R1=R1+integer</t>
-  </si>
-  <si>
-    <t>initialize return value</t>
-  </si>
-  <si>
     <t>LDX 1,28,I</t>
   </si>
   <si>
-    <t>Register restore</t>
-  </si>
-  <si>
     <t>LDR 1,3,1</t>
   </si>
   <si>
@@ -1028,25 +968,10 @@
     <t>JMA 3,14</t>
   </si>
   <si>
-    <t>store the argument</t>
-  </si>
-  <si>
-    <t>increase index by 1</t>
-  </si>
-  <si>
     <t>IX3=1255</t>
   </si>
   <si>
     <t>LDA 0,0,2</t>
-  </si>
-  <si>
-    <t>store address(R0) of arguments into memory</t>
-  </si>
-  <si>
-    <t>IX1 is index of arguments</t>
-  </si>
-  <si>
-    <t>get return value</t>
   </si>
   <si>
     <t>JCC 3,3,20</t>
@@ -1410,9 +1335,6 @@
     <t>JMA 3,22</t>
   </si>
   <si>
-    <t>:print number--7</t>
-  </si>
-  <si>
     <t>R0=IX3+30</t>
   </si>
   <si>
@@ -1431,9 +1353,6 @@
     <t>// end of array</t>
   </si>
   <si>
-    <t>:loop-22</t>
-  </si>
-  <si>
     <t>LDR 0,0,28,I</t>
   </si>
   <si>
@@ -1443,9 +1362,6 @@
     <t>JNE 0,3,30</t>
   </si>
   <si>
-    <t>:newpart-30</t>
-  </si>
-  <si>
     <t>:loop-4</t>
   </si>
   <si>
@@ -1458,9 +1374,6 @@
     <t>STR 0,0,30,I</t>
   </si>
   <si>
-    <t>// find the point is not zero</t>
-  </si>
-  <si>
     <t>// increase base point to use transfer instruction</t>
   </si>
   <si>
@@ -1480,6 +1393,99 @@
   </si>
   <si>
     <t>// read the content in current point</t>
+  </si>
+  <si>
+    <t>// get return value</t>
+  </si>
+  <si>
+    <t>// IX3 is base of this function</t>
+  </si>
+  <si>
+    <t>// IX2 is base of local memory</t>
+  </si>
+  <si>
+    <t>// store address(R0) of arguments into memory</t>
+  </si>
+  <si>
+    <t>// IX1 is index of arguments</t>
+  </si>
+  <si>
+    <t>// initialize return value</t>
+  </si>
+  <si>
+    <t>// get a argument</t>
+  </si>
+  <si>
+    <t>// R2 is the value of end of argument, -1</t>
+  </si>
+  <si>
+    <t>// if R0==-1 call return</t>
+  </si>
+  <si>
+    <t>// else perform calculation</t>
+  </si>
+  <si>
+    <t>// Register restore</t>
+  </si>
+  <si>
+    <t>// return</t>
+  </si>
+  <si>
+    <t>// store the argument</t>
+  </si>
+  <si>
+    <t>// R0 is return value</t>
+  </si>
+  <si>
+    <t>// R1=R0*10</t>
+  </si>
+  <si>
+    <t>// R0 is the argument</t>
+  </si>
+  <si>
+    <t>// get an integer</t>
+  </si>
+  <si>
+    <t>// R1=R1+integer</t>
+  </si>
+  <si>
+    <t>// store return value</t>
+  </si>
+  <si>
+    <t>// increase index by 1</t>
+  </si>
+  <si>
+    <t>:end loop--16</t>
+  </si>
+  <si>
+    <t>:end loop--29</t>
+  </si>
+  <si>
+    <t>:loop--22</t>
+  </si>
+  <si>
+    <t>// find the index with non-zero</t>
+  </si>
+  <si>
+    <t>:if--18</t>
+  </si>
+  <si>
+    <t>:if--3</t>
+  </si>
+  <si>
+    <t>:if--9</t>
+  </si>
+  <si>
+    <t>IX1=mem[9]=400</t>
+  </si>
+  <si>
+    <t>mem[400+21]=R0</t>
+  </si>
+  <si>
+    <t>mem[400+22]=R0</t>
+  </si>
+  <si>
+    <t>//    jump to call store number() function</t>
   </si>
 </sst>
 </file>
@@ -1773,9 +1779,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1789,6 +1792,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2105,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3678236-C951-4578-99F9-475994DA1FF9}">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E413" sqref="E413"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2124,10 +2130,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
@@ -2136,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -2146,20 +2152,20 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="39">
+      <c r="A2" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="38">
         <v>1000</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>162</v>
+      <c r="C2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>159</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
@@ -2174,11 +2180,11 @@
         <v>1001</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -2193,11 +2199,11 @@
         <v>1002</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="15" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="26" t="s">
@@ -2210,13 +2216,13 @@
         <v>1003</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="15"/>
       <c r="G5" s="3"/>
       <c r="H5" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2225,13 +2231,13 @@
         <v>1004</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="15"/>
       <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2240,13 +2246,13 @@
         <v>1005</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="15"/>
       <c r="G7" s="3"/>
       <c r="H7" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2255,7 +2261,7 @@
         <v>1006</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="14"/>
@@ -2270,13 +2276,13 @@
         <v>1007</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="14"/>
       <c r="G9" s="3"/>
       <c r="H9" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2285,13 +2291,13 @@
         <v>1008</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="14"/>
       <c r="G10" s="3"/>
       <c r="H10" s="29" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" thickBot="1">
@@ -2300,34 +2306,34 @@
         <v>1009</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="20"/>
       <c r="G11" s="3"/>
       <c r="H11" s="29" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="6">
         <v>1010</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="29" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2336,13 +2342,13 @@
         <v>1011</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="14"/>
       <c r="G13" s="3"/>
       <c r="H13" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2351,13 +2357,13 @@
         <v>1012</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="14"/>
       <c r="G14" s="3"/>
       <c r="H14" s="30" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2369,14 +2375,14 @@
         <v>6</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2385,7 +2391,7 @@
         <v>1014</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>8</v>
@@ -2393,7 +2399,7 @@
       <c r="E16" s="14"/>
       <c r="G16" s="3"/>
       <c r="H16" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2405,14 +2411,14 @@
         <v>7</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2421,17 +2427,17 @@
         <v>1016</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="30" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2440,15 +2446,15 @@
         <v>1017</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="3"/>
       <c r="H19" s="30" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2457,15 +2463,15 @@
         <v>1018</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>23</v>
+        <v>481</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="3"/>
       <c r="H20" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2474,10 +2480,10 @@
         <v>1019</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="14"/>
       <c r="G21" s="3"/>
@@ -2491,15 +2497,15 @@
         <v>1020</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>25</v>
+        <v>482</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="3"/>
       <c r="H22" s="31" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2508,7 +2514,7 @@
         <v>1021</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>5</v>
@@ -2516,7 +2522,7 @@
       <c r="E23" s="14"/>
       <c r="G23" s="3"/>
       <c r="H23" s="31" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2525,15 +2531,15 @@
         <v>1022</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="31" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2542,15 +2548,15 @@
         <v>1023</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2559,11 +2565,11 @@
         <v>1024</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>16</v>
@@ -2578,11 +2584,11 @@
         <v>1025</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="7" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
       <c r="G27" s="3">
         <v>420</v>
@@ -2600,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="3" t="s">
@@ -2616,17 +2622,17 @@
         <v>1027</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="3">
         <v>550</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" thickBot="1">
@@ -2635,10 +2641,10 @@
         <v>1028</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="14"/>
       <c r="G30" s="5" t="s">
@@ -2654,11 +2660,11 @@
         <v>1029</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2667,11 +2673,11 @@
         <v>1030</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="7" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2680,11 +2686,11 @@
         <v>1031</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2693,11 +2699,11 @@
         <v>1032</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="7" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2709,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="14"/>
     </row>
@@ -2719,10 +2725,10 @@
         <v>1034</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E36" s="14"/>
     </row>
@@ -2732,7 +2738,7 @@
         <v>1035</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>4</v>
@@ -2745,11 +2751,11 @@
         <v>1036</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2758,11 +2764,11 @@
         <v>1037</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="7" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2771,11 +2777,11 @@
         <v>1038</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2784,11 +2790,11 @@
         <v>1039</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="7" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2800,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="14"/>
     </row>
@@ -2810,10 +2816,10 @@
         <v>1041</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43" s="14"/>
     </row>
@@ -2823,10 +2829,10 @@
         <v>1042</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E44" s="14"/>
     </row>
@@ -2836,11 +2842,11 @@
         <v>1043</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2849,11 +2855,11 @@
         <v>1044</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D46" s="34"/>
       <c r="E46" s="7" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2862,11 +2868,11 @@
         <v>1045</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2875,11 +2881,11 @@
         <v>1046</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="34"/>
       <c r="E48" s="7" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2888,12 +2894,12 @@
         <v>1047</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6"/>
@@ -2901,10 +2907,10 @@
         <v>1048</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E50" s="14"/>
     </row>
@@ -2914,10 +2920,10 @@
         <v>1049</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E51" s="14"/>
     </row>
@@ -2927,11 +2933,11 @@
         <v>1050</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2940,11 +2946,11 @@
         <v>1051</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="7" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2953,11 +2959,11 @@
         <v>1052</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2966,11 +2972,11 @@
         <v>1053</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="7" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="31.2">
@@ -2979,11 +2985,11 @@
         <v>1054</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2992,7 +2998,7 @@
         <v>1055</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="14"/>
@@ -3003,7 +3009,7 @@
         <v>1056</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="14"/>
@@ -3014,7 +3020,7 @@
         <v>1057</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="14"/>
@@ -3025,7 +3031,7 @@
         <v>1058</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="14"/>
@@ -3036,7 +3042,7 @@
         <v>1059</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D61" s="25"/>
       <c r="E61" s="14"/>
@@ -3047,7 +3053,7 @@
         <v>1060</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="14"/>
@@ -3058,7 +3064,7 @@
         <v>1061</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="14"/>
@@ -3069,7 +3075,7 @@
         <v>1062</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="14"/>
@@ -3080,7 +3086,7 @@
         <v>1063</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="14"/>
@@ -3091,7 +3097,7 @@
         <v>1064</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="14"/>
@@ -3102,7 +3108,7 @@
         <v>1065</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D67" s="25"/>
       <c r="E67" s="14"/>
@@ -3113,7 +3119,7 @@
         <v>1066</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="14"/>
@@ -3124,7 +3130,7 @@
         <v>1067</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="14"/>
@@ -3135,7 +3141,7 @@
         <v>1068</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="14"/>
@@ -3146,26 +3152,26 @@
         <v>1069</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="B72" s="39">
+      <c r="A72" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="B72" s="38">
         <v>1070</v>
       </c>
-      <c r="C72" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="42" t="s">
-        <v>210</v>
+      <c r="C72" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3174,13 +3180,13 @@
         <v>1071</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3189,10 +3195,10 @@
         <v>1072</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E74" s="14"/>
     </row>
@@ -3202,13 +3208,13 @@
         <v>1073</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3217,10 +3223,10 @@
         <v>1074</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E76" s="15"/>
     </row>
@@ -3230,13 +3236,13 @@
         <v>1075</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3245,10 +3251,10 @@
         <v>1076</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E78" s="14"/>
     </row>
@@ -3258,13 +3264,13 @@
         <v>1077</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3273,7 +3279,7 @@
         <v>1078</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="14"/>
@@ -3284,11 +3290,11 @@
         <v>1079</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3297,13 +3303,13 @@
         <v>1080</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>337</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3312,7 +3318,7 @@
         <v>1081</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="14"/>
@@ -3323,13 +3329,13 @@
         <v>1082</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3338,10 +3344,10 @@
         <v>1083</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E85" s="14"/>
     </row>
@@ -3351,10 +3357,10 @@
         <v>1084</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E86" s="14"/>
     </row>
@@ -3364,13 +3370,13 @@
         <v>1085</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3379,10 +3385,10 @@
         <v>1086</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E88" s="14"/>
     </row>
@@ -3392,13 +3398,13 @@
         <v>1087</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3407,13 +3413,13 @@
         <v>1088</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3422,13 +3428,13 @@
         <v>1089</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3437,13 +3443,13 @@
         <v>1090</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3452,11 +3458,11 @@
         <v>1091</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3465,13 +3471,13 @@
         <v>1092</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3480,13 +3486,13 @@
         <v>1093</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3495,7 +3501,7 @@
         <v>1094</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D96" s="25"/>
       <c r="E96" s="22"/>
@@ -3506,11 +3512,11 @@
         <v>1095</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="D97" s="25"/>
       <c r="E97" s="22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3519,11 +3525,11 @@
         <v>1096</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D98" s="25"/>
       <c r="E98" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3532,7 +3538,7 @@
         <v>1097</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D99" s="25"/>
       <c r="E99" s="23"/>
@@ -3543,7 +3549,7 @@
         <v>1098</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D100" s="25"/>
       <c r="E100" s="23"/>
@@ -3554,20 +3560,20 @@
         <v>1099</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D101" s="35"/>
-      <c r="E101" s="46"/>
+      <c r="E101" s="45"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B102" s="6">
         <v>1100</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D102" s="25"/>
       <c r="E102" s="15"/>
@@ -3578,10 +3584,10 @@
         <v>1101</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E103" s="15"/>
     </row>
@@ -3591,10 +3597,10 @@
         <v>1102</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E104" s="15"/>
     </row>
@@ -3604,11 +3610,11 @@
         <v>1103</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D105" s="25"/>
       <c r="E105" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3617,11 +3623,11 @@
         <v>1104</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3630,7 +3636,7 @@
         <v>1105</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D107" s="25"/>
       <c r="E107" s="15"/>
@@ -3641,7 +3647,7 @@
         <v>1106</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D108" s="25"/>
       <c r="E108" s="15"/>
@@ -3652,7 +3658,7 @@
         <v>1107</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D109" s="25"/>
       <c r="E109" s="15"/>
@@ -3663,7 +3669,7 @@
         <v>1108</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="15"/>
@@ -3674,7 +3680,7 @@
         <v>1109</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D111" s="25"/>
       <c r="E111" s="15"/>
@@ -3685,7 +3691,7 @@
         <v>1110</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D112" s="25"/>
       <c r="E112" s="15"/>
@@ -3696,7 +3702,7 @@
         <v>1111</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D113" s="25"/>
       <c r="E113" s="15"/>
@@ -3707,7 +3713,7 @@
         <v>1112</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D114" s="25"/>
       <c r="E114" s="15"/>
@@ -3718,7 +3724,7 @@
         <v>1113</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="15"/>
@@ -3729,7 +3735,7 @@
         <v>1114</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D116" s="25"/>
       <c r="E116" s="15"/>
@@ -3740,7 +3746,7 @@
         <v>1115</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D117" s="25"/>
       <c r="E117" s="15"/>
@@ -3751,11 +3757,11 @@
         <v>1116</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D118" s="25"/>
       <c r="E118" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3764,7 +3770,7 @@
         <v>1117</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D119" s="25"/>
       <c r="E119" s="15"/>
@@ -3775,7 +3781,7 @@
         <v>1118</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D120" s="25"/>
       <c r="E120" s="15"/>
@@ -3786,7 +3792,7 @@
         <v>1119</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D121" s="25"/>
       <c r="E121" s="15"/>
@@ -3797,7 +3803,7 @@
         <v>1120</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D122" s="25"/>
       <c r="E122" s="15"/>
@@ -3808,7 +3814,7 @@
         <v>1121</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="15"/>
@@ -3819,7 +3825,7 @@
         <v>1122</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D124" s="25"/>
       <c r="E124" s="15"/>
@@ -3830,7 +3836,7 @@
         <v>1123</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D125" s="25"/>
       <c r="E125" s="15"/>
@@ -3841,7 +3847,7 @@
         <v>1124</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D126" s="25"/>
       <c r="E126" s="15"/>
@@ -3852,7 +3858,7 @@
         <v>1125</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D127" s="25"/>
       <c r="E127" s="15"/>
@@ -3863,7 +3869,7 @@
         <v>1126</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D128" s="25"/>
       <c r="E128" s="15"/>
@@ -3874,7 +3880,7 @@
         <v>1127</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D129" s="25"/>
       <c r="E129" s="15"/>
@@ -3885,7 +3891,7 @@
         <v>1128</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="15"/>
@@ -3896,7 +3902,7 @@
         <v>1129</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="15"/>
@@ -3907,7 +3913,7 @@
         <v>1130</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D132" s="25"/>
       <c r="E132" s="15"/>
@@ -3918,11 +3924,11 @@
         <v>1131</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3931,7 +3937,7 @@
         <v>1132</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D134" s="25"/>
       <c r="E134" s="15"/>
@@ -3942,7 +3948,7 @@
         <v>1133</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D135" s="25"/>
       <c r="E135" s="15"/>
@@ -3953,7 +3959,7 @@
         <v>1134</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D136" s="25"/>
       <c r="E136" s="15"/>
@@ -3964,7 +3970,7 @@
         <v>1135</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D137" s="25"/>
       <c r="E137" s="15"/>
@@ -3975,7 +3981,7 @@
         <v>1136</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D138" s="25"/>
       <c r="E138" s="15"/>
@@ -3986,7 +3992,7 @@
         <v>1137</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D139" s="25"/>
       <c r="E139" s="15"/>
@@ -3997,7 +4003,7 @@
         <v>1138</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D140" s="25"/>
       <c r="E140" s="15"/>
@@ -4008,7 +4014,7 @@
         <v>1139</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D141" s="25"/>
       <c r="E141" s="15"/>
@@ -4019,7 +4025,7 @@
         <v>1140</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D142" s="25"/>
       <c r="E142" s="15"/>
@@ -4030,7 +4036,7 @@
         <v>1141</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="15"/>
@@ -4041,7 +4047,7 @@
         <v>1142</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D144" s="25"/>
       <c r="E144" s="15"/>
@@ -4052,11 +4058,11 @@
         <v>1143</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="15" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4065,7 +4071,7 @@
         <v>1144</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="15"/>
@@ -4076,7 +4082,7 @@
         <v>1145</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="15"/>
@@ -4087,7 +4093,7 @@
         <v>1146</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="15"/>
@@ -4098,7 +4104,7 @@
         <v>1147</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D149" s="25"/>
       <c r="E149" s="15"/>
@@ -4109,7 +4115,7 @@
         <v>1148</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D150" s="25"/>
       <c r="E150" s="15"/>
@@ -4120,11 +4126,11 @@
         <v>1149</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D151" s="25"/>
       <c r="E151" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="16.2" thickBot="1">
@@ -4133,25 +4139,25 @@
         <v>1150</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="15"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="38" t="s">
+      <c r="A153" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" s="38">
+        <v>1151</v>
+      </c>
+      <c r="C153" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D153" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="B153" s="39">
-        <v>1151</v>
-      </c>
-      <c r="C153" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D153" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E153" s="45"/>
+      <c r="E153" s="44"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="6"/>
@@ -4159,10 +4165,10 @@
         <v>1152</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E154" s="15"/>
     </row>
@@ -4172,11 +4178,11 @@
         <v>1153</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D155" s="25"/>
       <c r="E155" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4185,11 +4191,11 @@
         <v>1154</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4198,7 +4204,7 @@
         <v>1155</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D157" s="25"/>
       <c r="E157" s="15"/>
@@ -4209,7 +4215,7 @@
         <v>1156</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D158" s="25"/>
       <c r="E158" s="15"/>
@@ -4220,7 +4226,7 @@
         <v>1157</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D159" s="25"/>
       <c r="E159" s="15"/>
@@ -4231,7 +4237,7 @@
         <v>1158</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D160" s="25"/>
       <c r="E160" s="15"/>
@@ -4242,7 +4248,7 @@
         <v>1159</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D161" s="25"/>
       <c r="E161" s="15"/>
@@ -4253,7 +4259,7 @@
         <v>1160</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D162" s="25"/>
       <c r="E162" s="15"/>
@@ -4264,7 +4270,7 @@
         <v>1161</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D163" s="25"/>
       <c r="E163" s="15"/>
@@ -4275,7 +4281,7 @@
         <v>1162</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D164" s="25"/>
       <c r="E164" s="15"/>
@@ -4286,7 +4292,7 @@
         <v>1163</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D165" s="25"/>
       <c r="E165" s="15"/>
@@ -4297,7 +4303,7 @@
         <v>1164</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D166" s="25"/>
       <c r="E166" s="15"/>
@@ -4308,7 +4314,7 @@
         <v>1165</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D167" s="25"/>
       <c r="E167" s="15"/>
@@ -4319,11 +4325,11 @@
         <v>1166</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D168" s="25"/>
       <c r="E168" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4332,7 +4338,7 @@
         <v>1167</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D169" s="25"/>
       <c r="E169" s="15"/>
@@ -4343,7 +4349,7 @@
         <v>1168</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D170" s="25"/>
       <c r="E170" s="15"/>
@@ -4354,7 +4360,7 @@
         <v>1169</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D171" s="25"/>
       <c r="E171" s="15"/>
@@ -4365,7 +4371,7 @@
         <v>1170</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D172" s="25"/>
       <c r="E172" s="15"/>
@@ -4376,7 +4382,7 @@
         <v>1171</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D173" s="25"/>
       <c r="E173" s="15"/>
@@ -4387,7 +4393,7 @@
         <v>1172</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D174" s="25"/>
       <c r="E174" s="15"/>
@@ -4398,7 +4404,7 @@
         <v>1173</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D175" s="25"/>
       <c r="E175" s="15"/>
@@ -4409,11 +4415,11 @@
         <v>1174</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D176" s="25"/>
       <c r="E176" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4422,7 +4428,7 @@
         <v>1175</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D177" s="25"/>
       <c r="E177" s="15"/>
@@ -4433,7 +4439,7 @@
         <v>1176</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D178" s="25"/>
       <c r="E178" s="15"/>
@@ -4444,7 +4450,7 @@
         <v>1177</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D179" s="25"/>
       <c r="E179" s="15"/>
@@ -4455,7 +4461,7 @@
         <v>1178</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D180" s="25"/>
       <c r="E180" s="15"/>
@@ -4466,7 +4472,7 @@
         <v>1179</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D181" s="25"/>
       <c r="E181" s="15"/>
@@ -4477,7 +4483,7 @@
         <v>1180</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D182" s="25"/>
       <c r="E182" s="15"/>
@@ -4488,7 +4494,7 @@
         <v>1181</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D183" s="25"/>
       <c r="E183" s="15"/>
@@ -4499,7 +4505,7 @@
         <v>1182</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D184" s="25"/>
       <c r="E184" s="15"/>
@@ -4510,7 +4516,7 @@
         <v>1183</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D185" s="25"/>
       <c r="E185" s="15"/>
@@ -4521,7 +4527,7 @@
         <v>1184</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D186" s="25"/>
       <c r="E186" s="15"/>
@@ -4532,7 +4538,7 @@
         <v>1185</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D187" s="25"/>
       <c r="E187" s="15"/>
@@ -4543,7 +4549,7 @@
         <v>1186</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D188" s="25"/>
       <c r="E188" s="15"/>
@@ -4554,7 +4560,7 @@
         <v>1187</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D189" s="25"/>
       <c r="E189" s="15"/>
@@ -4565,7 +4571,7 @@
         <v>1188</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D190" s="25"/>
       <c r="E190" s="15"/>
@@ -4576,11 +4582,11 @@
         <v>1189</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D191" s="25"/>
       <c r="E191" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4589,7 +4595,7 @@
         <v>1190</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D192" s="25"/>
       <c r="E192" s="15"/>
@@ -4600,7 +4606,7 @@
         <v>1191</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D193" s="25"/>
       <c r="E193" s="15"/>
@@ -4611,7 +4617,7 @@
         <v>1192</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D194" s="25"/>
       <c r="E194" s="15"/>
@@ -4622,7 +4628,7 @@
         <v>1193</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D195" s="25"/>
       <c r="E195" s="15"/>
@@ -4633,7 +4639,7 @@
         <v>1194</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D196" s="25"/>
       <c r="E196" s="15"/>
@@ -4644,7 +4650,7 @@
         <v>1195</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D197" s="25"/>
       <c r="E197" s="15"/>
@@ -4655,7 +4661,7 @@
         <v>1196</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D198" s="25"/>
       <c r="E198" s="15"/>
@@ -4666,7 +4672,7 @@
         <v>1197</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D199" s="25"/>
       <c r="E199" s="15"/>
@@ -4677,7 +4683,7 @@
         <v>1198</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D200" s="25"/>
       <c r="E200" s="15"/>
@@ -4688,7 +4694,7 @@
         <v>1199</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D201" s="25"/>
       <c r="E201" s="15"/>
@@ -4699,7 +4705,7 @@
         <v>1200</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D202" s="25"/>
       <c r="E202" s="15"/>
@@ -4710,7 +4716,7 @@
         <v>1201</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D203" s="25"/>
       <c r="E203" s="15"/>
@@ -4721,7 +4727,7 @@
         <v>1202</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D204" s="25"/>
       <c r="E204" s="15"/>
@@ -4732,7 +4738,7 @@
         <v>1203</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D205" s="25"/>
       <c r="E205" s="15"/>
@@ -4743,7 +4749,7 @@
         <v>1204</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D206" s="25"/>
       <c r="E206" s="15"/>
@@ -4754,7 +4760,7 @@
         <v>1205</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D207" s="25"/>
       <c r="E207" s="15"/>
@@ -4765,7 +4771,7 @@
         <v>1206</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D208" s="25"/>
       <c r="E208" s="15"/>
@@ -4776,7 +4782,7 @@
         <v>1207</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D209" s="25"/>
       <c r="E209" s="15"/>
@@ -4787,7 +4793,7 @@
         <v>1208</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D210" s="25"/>
       <c r="E210" s="15"/>
@@ -4798,7 +4804,7 @@
         <v>1209</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D211" s="25"/>
       <c r="E211" s="15"/>
@@ -4809,7 +4815,7 @@
         <v>1210</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D212" s="25"/>
       <c r="E212" s="15"/>
@@ -4820,7 +4826,7 @@
         <v>1211</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D213" s="25"/>
       <c r="E213" s="15"/>
@@ -4831,11 +4837,11 @@
         <v>1212</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D214" s="25"/>
       <c r="E214" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4844,7 +4850,7 @@
         <v>1213</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D215" s="25"/>
       <c r="E215" s="15"/>
@@ -4855,7 +4861,7 @@
         <v>1214</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D216" s="25"/>
       <c r="E216" s="15"/>
@@ -4866,7 +4872,7 @@
         <v>1215</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D217" s="25"/>
       <c r="E217" s="15"/>
@@ -4877,7 +4883,7 @@
         <v>1216</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D218" s="25"/>
       <c r="E218" s="15"/>
@@ -4888,7 +4894,7 @@
         <v>1217</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D219" s="25"/>
       <c r="E219" s="15"/>
@@ -4899,7 +4905,7 @@
         <v>1218</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D220" s="25"/>
       <c r="E220" s="15"/>
@@ -4910,7 +4916,7 @@
         <v>1219</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D221" s="25"/>
       <c r="E221" s="15"/>
@@ -4921,7 +4927,7 @@
         <v>1220</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D222" s="25"/>
       <c r="E222" s="15"/>
@@ -4932,7 +4938,7 @@
         <v>1221</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D223" s="25"/>
       <c r="E223" s="15"/>
@@ -4943,7 +4949,7 @@
         <v>1222</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D224" s="25"/>
       <c r="E224" s="15"/>
@@ -4954,7 +4960,7 @@
         <v>1223</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D225" s="25"/>
       <c r="E225" s="15"/>
@@ -4965,7 +4971,7 @@
         <v>1224</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D226" s="25"/>
       <c r="E226" s="15"/>
@@ -4976,7 +4982,7 @@
         <v>1225</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D227" s="25"/>
       <c r="E227" s="15"/>
@@ -4987,7 +4993,7 @@
         <v>1226</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D228" s="25"/>
       <c r="E228" s="15"/>
@@ -4998,7 +5004,7 @@
         <v>1227</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D229" s="25"/>
       <c r="E229" s="15"/>
@@ -5009,7 +5015,7 @@
         <v>1228</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D230" s="25"/>
       <c r="E230" s="15"/>
@@ -5020,7 +5026,7 @@
         <v>1229</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D231" s="25"/>
       <c r="E231" s="15"/>
@@ -5031,7 +5037,7 @@
         <v>1230</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D232" s="25"/>
       <c r="E232" s="15"/>
@@ -5042,7 +5048,7 @@
         <v>1231</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D233" s="25"/>
       <c r="E233" s="15"/>
@@ -5053,7 +5059,7 @@
         <v>1232</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D234" s="25"/>
       <c r="E234" s="15"/>
@@ -5064,7 +5070,7 @@
         <v>1233</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D235" s="25"/>
       <c r="E235" s="15"/>
@@ -5075,26 +5081,26 @@
         <v>1234</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D236" s="35"/>
-      <c r="E236" s="46"/>
+      <c r="E236" s="45"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B237" s="6">
         <v>1235</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5105,10 +5111,10 @@
         <v>1236</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E238" s="14"/>
     </row>
@@ -5120,28 +5126,28 @@
         <v>1237</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="6">
-        <v>3</v>
+      <c r="A240" s="17" t="s">
+        <v>478</v>
       </c>
       <c r="B240" s="6">
         <v>1238</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="D240" s="25"/>
       <c r="E240" s="14" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5152,28 +5158,28 @@
         <v>1239</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D241" s="25"/>
       <c r="E241" s="15" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="17" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B242" s="6">
         <v>1240</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5184,25 +5190,25 @@
         <v>1241</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D243" s="25"/>
       <c r="E243" s="15" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="17" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="B244" s="6">
         <v>1242</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E244" s="15"/>
     </row>
@@ -5214,26 +5220,26 @@
         <v>1243</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E245" s="15"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="17">
-        <v>9</v>
+      <c r="A246" s="17" t="s">
+        <v>479</v>
       </c>
       <c r="B246" s="6">
         <v>1244</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D246" s="25"/>
       <c r="E246" s="15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5244,28 +5250,28 @@
         <v>1245</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D247" s="25"/>
       <c r="E247" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="17" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="B248" s="6">
         <v>1246</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5276,28 +5282,28 @@
         <v>1247</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D249" s="25"/>
       <c r="E249" s="15" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="17" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="B250" s="6">
         <v>1248</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5308,11 +5314,11 @@
         <v>1249</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D251" s="25"/>
       <c r="E251" s="15" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5321,7 +5327,7 @@
         <v>1250</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D252" s="25"/>
       <c r="E252" s="14"/>
@@ -5332,7 +5338,7 @@
         <v>1251</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D253" s="25"/>
       <c r="E253" s="14"/>
@@ -5343,7 +5349,7 @@
         <v>1252</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D254" s="25"/>
       <c r="E254" s="14"/>
@@ -5354,7 +5360,7 @@
         <v>1253</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D255" s="25"/>
       <c r="E255" s="14"/>
@@ -5365,26 +5371,26 @@
         <v>1254</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D256" s="25"/>
       <c r="E256" s="14"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="B257" s="39">
+      <c r="A257" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B257" s="38">
         <v>1255</v>
       </c>
-      <c r="C257" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D257" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="E257" s="42" t="s">
-        <v>443</v>
+      <c r="C257" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D257" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E257" s="41" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5395,10 +5401,10 @@
         <v>1256</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E258" s="14"/>
     </row>
@@ -5410,10 +5416,10 @@
         <v>1257</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E259" s="14"/>
     </row>
@@ -5425,10 +5431,10 @@
         <v>1258</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E260" s="14"/>
     </row>
@@ -5440,10 +5446,10 @@
         <v>1259</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E261" s="14"/>
     </row>
@@ -5455,10 +5461,10 @@
         <v>1260</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E262" s="14"/>
     </row>
@@ -5470,10 +5476,10 @@
         <v>1261</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E263" s="14"/>
     </row>
@@ -5485,10 +5491,10 @@
         <v>1262</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E264" s="14"/>
     </row>
@@ -5500,13 +5506,13 @@
         <v>1263</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="E265" s="14" t="s">
-        <v>302</v>
+        <v>454</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5517,13 +5523,13 @@
         <v>1264</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E266" s="14" t="s">
-        <v>295</v>
+        <v>455</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5534,13 +5540,13 @@
         <v>1265</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E267" s="14" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5551,13 +5557,13 @@
         <v>1266</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E268" s="14" t="s">
-        <v>336</v>
+        <v>457</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5568,10 +5574,10 @@
         <v>1267</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E269" s="15"/>
     </row>
@@ -5583,24 +5589,24 @@
         <v>1268</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E270" s="14" t="s">
-        <v>312</v>
+        <v>458</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="17" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="B271" s="6">
         <v>1269</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D271" s="25"/>
       <c r="E271" s="14"/>
@@ -5613,13 +5619,13 @@
         <v>1270</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E272" s="14" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5630,13 +5636,13 @@
         <v>1271</v>
       </c>
       <c r="C273" s="13" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E273" s="14" t="s">
-        <v>256</v>
+        <v>460</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5647,26 +5653,26 @@
         <v>1272</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E274" s="14"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="17">
-        <v>18</v>
+      <c r="A275" s="17" t="s">
+        <v>477</v>
       </c>
       <c r="B275" s="6">
         <v>1273</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="D275" s="25"/>
       <c r="E275" s="14" t="s">
-        <v>299</v>
+        <v>461</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5677,28 +5683,28 @@
         <v>1274</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D276" s="25"/>
       <c r="E276" s="14" t="s">
-        <v>298</v>
+        <v>462</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="17" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="B277" s="6">
         <v>1275</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E277" s="14" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5709,10 +5715,10 @@
         <v>1276</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="E278" s="14"/>
     </row>
@@ -5724,10 +5730,10 @@
         <v>1277</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E279" s="14"/>
     </row>
@@ -5739,10 +5745,10 @@
         <v>1278</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="E280" s="14"/>
     </row>
@@ -5754,10 +5760,10 @@
         <v>1279</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="E281" s="14"/>
     </row>
@@ -5769,10 +5775,10 @@
         <v>1280</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E282" s="14"/>
     </row>
@@ -5784,10 +5790,10 @@
         <v>1281</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="E283" s="14"/>
     </row>
@@ -5799,10 +5805,10 @@
         <v>1282</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="E284" s="14"/>
     </row>
@@ -5814,28 +5820,28 @@
         <v>1283</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D285" s="25"/>
       <c r="E285" s="14" t="s">
-        <v>300</v>
+        <v>464</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="17" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="B286" s="6">
         <v>1284</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>331</v>
+        <v>465</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5846,10 +5852,10 @@
         <v>1285</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E287" s="14"/>
     </row>
@@ -5861,13 +5867,13 @@
         <v>1286</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E288" s="14" t="s">
-        <v>291</v>
+        <v>466</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5878,13 +5884,13 @@
         <v>1287</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E289" s="14" t="s">
-        <v>292</v>
+        <v>467</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5895,13 +5901,13 @@
         <v>1288</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E290" s="14" t="s">
-        <v>307</v>
+        <v>468</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5912,13 +5918,13 @@
         <v>1289</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E291" s="15" t="s">
-        <v>308</v>
+        <v>469</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5929,10 +5935,10 @@
         <v>1290</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E292" s="4"/>
     </row>
@@ -5944,13 +5950,13 @@
         <v>1291</v>
       </c>
       <c r="C293" s="13" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>311</v>
+        <v>470</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5961,13 +5967,13 @@
         <v>1292</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E294" s="15" t="s">
-        <v>287</v>
+        <v>471</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5978,10 +5984,10 @@
         <v>1293</v>
       </c>
       <c r="C295" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E295" s="14"/>
     </row>
@@ -5993,10 +5999,10 @@
         <v>1294</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E296" s="15"/>
     </row>
@@ -6008,10 +6014,10 @@
         <v>1295</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E297" s="15"/>
     </row>
@@ -6023,10 +6029,10 @@
         <v>1296</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E298" s="4"/>
     </row>
@@ -6038,13 +6044,13 @@
         <v>1297</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>332</v>
+        <v>472</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6055,35 +6061,35 @@
         <v>1298</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D300" s="25"/>
       <c r="E300" s="14"/>
     </row>
     <row r="301" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A301" s="43" t="s">
-        <v>367</v>
+      <c r="A301" s="42" t="s">
+        <v>342</v>
       </c>
       <c r="B301" s="18">
         <v>1299</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D301" s="35"/>
-      <c r="E301" s="44" t="s">
-        <v>143</v>
+      <c r="E301" s="43" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B302" s="6">
         <v>1300</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D302" s="25"/>
       <c r="E302" s="14"/>
@@ -6094,13 +6100,13 @@
         <v>1301</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D303" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E303" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6109,13 +6115,13 @@
         <v>1302</v>
       </c>
       <c r="C304" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D304" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D304" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="E304" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6124,13 +6130,13 @@
         <v>1303</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D305" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E305" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6139,13 +6145,13 @@
         <v>1304</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D306" s="26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E306" s="14" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="31.2">
@@ -6154,13 +6160,13 @@
         <v>1305</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D307" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E307" s="14" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6169,13 +6175,13 @@
         <v>1306</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D308" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E308" s="14" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6184,10 +6190,10 @@
         <v>1307</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E309" s="14"/>
     </row>
@@ -6197,10 +6203,10 @@
         <v>1308</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E310" s="14"/>
     </row>
@@ -6210,10 +6216,10 @@
         <v>1309</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E311" s="14"/>
     </row>
@@ -6223,13 +6229,13 @@
         <v>1310</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E312" s="14" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6238,10 +6244,10 @@
         <v>1311</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E313" s="14"/>
     </row>
@@ -6251,11 +6257,11 @@
         <v>1312</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D314" s="25"/>
       <c r="E314" s="14" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6264,7 +6270,7 @@
         <v>1313</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D315" s="25"/>
       <c r="E315" s="14"/>
@@ -6275,7 +6281,7 @@
         <v>1314</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D316" s="25"/>
       <c r="E316" s="14"/>
@@ -6286,7 +6292,7 @@
         <v>1315</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D317" s="25"/>
       <c r="E317" s="14"/>
@@ -6297,7 +6303,7 @@
         <v>1316</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D318" s="25"/>
       <c r="E318" s="14"/>
@@ -6308,7 +6314,7 @@
         <v>1317</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D319" s="25"/>
       <c r="E319" s="14"/>
@@ -6319,7 +6325,7 @@
         <v>1318</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D320" s="25"/>
       <c r="E320" s="14"/>
@@ -6330,26 +6336,26 @@
         <v>1319</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D321" s="25"/>
       <c r="E321" s="14"/>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B322" s="6">
         <v>1320</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D322" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E322" s="14" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6360,13 +6366,13 @@
         <v>1321</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D323" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E323" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6377,13 +6383,13 @@
         <v>1322</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D324" s="25" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="E324" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -6394,10 +6400,10 @@
         <v>1323</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D325" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E325" s="14"/>
     </row>
@@ -6409,13 +6415,13 @@
         <v>1324</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D326" s="25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E326" s="14" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6429,10 +6435,10 @@
         <v>6</v>
       </c>
       <c r="D327" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E327" s="14" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6443,11 +6449,11 @@
         <v>1326</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D328" s="25"/>
       <c r="E328" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6458,10 +6464,10 @@
         <v>1327</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D329" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E329" s="14"/>
     </row>
@@ -6473,13 +6479,13 @@
         <v>1328</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E330" s="14" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6490,13 +6496,13 @@
         <v>1329</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="D331" s="24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E331" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6507,28 +6513,28 @@
         <v>1330</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E332" s="15" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="17" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="B333" s="6">
         <v>1331</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D333" s="25"/>
       <c r="E333" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6539,28 +6545,28 @@
         <v>1332</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D334" s="25"/>
       <c r="E334" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="31.2">
       <c r="A335" s="17" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="B335" s="6">
         <v>1333</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D335" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E335" s="14" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6571,13 +6577,13 @@
         <v>1334</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D336" s="25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E336" s="14" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -6588,13 +6594,13 @@
         <v>1335</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D337" s="25" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E337" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -6605,11 +6611,11 @@
         <v>1336</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D338" s="25"/>
       <c r="E338" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F338" s="13"/>
     </row>
@@ -6621,10 +6627,10 @@
         <v>1337</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D339" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E339" s="14"/>
     </row>
@@ -6636,13 +6642,13 @@
         <v>1338</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D340" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -6653,9 +6659,9 @@
         <v>1339</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D341" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="D341" s="25"/>
       <c r="E341" s="14"/>
     </row>
     <row r="342" spans="1:6">
@@ -6666,13 +6672,13 @@
         <v>1340</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D342" s="24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E342" s="15" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -6683,30 +6689,30 @@
         <v>1341</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="D343" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E343" s="15" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="17" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="B344" s="6">
         <v>1342</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E344" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -6717,10 +6723,10 @@
         <v>1343</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D345" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E345" s="14"/>
     </row>
@@ -6732,10 +6738,10 @@
         <v>1344</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D346" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E346" s="14"/>
     </row>
@@ -6747,10 +6753,10 @@
         <v>1345</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D347" s="25" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="E347" s="14"/>
     </row>
@@ -6762,11 +6768,11 @@
         <v>1346</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D348" s="25"/>
       <c r="E348" s="14" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -6777,23 +6783,23 @@
         <v>1347</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D349" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="D349" s="25"/>
       <c r="E349" s="14"/>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="17" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="B350" s="6">
         <v>1348</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E350" s="14"/>
     </row>
@@ -6805,10 +6811,10 @@
         <v>1349</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D351" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E351" s="14"/>
     </row>
@@ -6820,10 +6826,10 @@
         <v>1350</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E352" s="14"/>
     </row>
@@ -6835,10 +6841,10 @@
         <v>1351</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D353" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E353" s="14"/>
     </row>
@@ -6850,13 +6856,13 @@
         <v>1352</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D354" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E354" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -6867,10 +6873,10 @@
         <v>1353</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="D355" s="25" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="E355" s="14"/>
     </row>
@@ -6882,13 +6888,13 @@
         <v>1354</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="D356" s="25" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E356" s="14" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -6899,13 +6905,13 @@
         <v>1355</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E357" s="14" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -6916,7 +6922,7 @@
         <v>1356</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D358" s="25"/>
       <c r="E358" s="14"/>
@@ -6929,10 +6935,10 @@
         <v>1357</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D359" s="25" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="E359" s="14"/>
     </row>
@@ -6944,10 +6950,10 @@
         <v>1358</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="E360" s="14"/>
     </row>
@@ -6959,10 +6965,10 @@
         <v>1359</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="E361" s="14"/>
     </row>
@@ -6974,10 +6980,10 @@
         <v>1360</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D362" s="25" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="E362" s="14"/>
     </row>
@@ -6989,26 +6995,26 @@
         <v>1361</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D363" s="25"/>
       <c r="E363" s="14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="17" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B364" s="6">
         <v>1362</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D364" s="25"/>
       <c r="E364" s="14" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -7017,7 +7023,7 @@
         <v>1363</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D365" s="25"/>
       <c r="E365" s="14"/>
@@ -7028,7 +7034,7 @@
         <v>1364</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D366" s="25"/>
       <c r="E366" s="14"/>
@@ -7040,7 +7046,7 @@
         <v>1365</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D367" s="25"/>
       <c r="E367" s="14"/>
@@ -7052,7 +7058,7 @@
         <v>1366</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D368" s="25"/>
       <c r="E368" s="14"/>
@@ -7064,7 +7070,7 @@
         <v>1367</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D369" s="25"/>
       <c r="E369" s="14"/>
@@ -7076,7 +7082,7 @@
         <v>1368</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D370" s="25"/>
       <c r="E370" s="14"/>
@@ -7087,26 +7093,26 @@
         <v>1369</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D371" s="25"/>
-      <c r="E371" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="D371" s="35"/>
+      <c r="E371" s="20"/>
     </row>
     <row r="372" spans="1:7">
-      <c r="A372" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="B372" s="39">
+      <c r="A372" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="B372" s="38">
         <v>1370</v>
       </c>
-      <c r="C372" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="D372" s="41" t="s">
-        <v>423</v>
-      </c>
-      <c r="E372" s="42" t="s">
-        <v>424</v>
+      <c r="C372" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D372" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E372" s="41" t="s">
+        <v>399</v>
       </c>
       <c r="F372" s="13"/>
       <c r="G372" s="13"/>
@@ -7119,13 +7125,13 @@
         <v>1371</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D373" s="25" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E373" s="14" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="F373" s="13"/>
       <c r="G373" s="13"/>
@@ -7138,13 +7144,13 @@
         <v>1372</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="D374" s="25" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="E374" s="14" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="F374" s="13"/>
       <c r="G374" s="13"/>
@@ -7157,13 +7163,13 @@
         <v>1373</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="E375" s="14" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="F375" s="13"/>
       <c r="G375" s="13"/>
@@ -7176,10 +7182,10 @@
         <v>1374</v>
       </c>
       <c r="C376" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D376" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E376" s="22"/>
       <c r="F376" s="13"/>
@@ -7193,10 +7199,10 @@
         <v>1375</v>
       </c>
       <c r="C377" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D377" s="34" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E377" s="22"/>
       <c r="F377" s="13"/>
@@ -7210,32 +7216,32 @@
         <v>1376</v>
       </c>
       <c r="C378" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D378" s="34" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E378" s="22" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="F378" s="13"/>
       <c r="G378" s="13"/>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="37" t="s">
-        <v>458</v>
+      <c r="A379" s="46">
+        <v>7</v>
       </c>
       <c r="B379" s="6">
         <v>1377</v>
       </c>
       <c r="C379" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D379" s="34" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="E379" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -7246,13 +7252,13 @@
         <v>1378</v>
       </c>
       <c r="C380" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D380" s="34" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E380" s="36" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="G380" s="8"/>
     </row>
@@ -7264,10 +7270,10 @@
         <v>1379</v>
       </c>
       <c r="C381" s="21" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D381" s="34" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E381" s="22"/>
     </row>
@@ -7279,10 +7285,10 @@
         <v>1380</v>
       </c>
       <c r="C382" s="21" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="D382" s="34" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="E382" s="36"/>
     </row>
@@ -7294,10 +7300,10 @@
         <v>1381</v>
       </c>
       <c r="C383" s="21" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D383" s="34" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E383" s="36"/>
       <c r="G383" s="13"/>
@@ -7310,10 +7316,10 @@
         <v>1382</v>
       </c>
       <c r="C384" s="21" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="D384" s="34" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="E384" s="22"/>
       <c r="G384" s="13"/>
@@ -7326,10 +7332,10 @@
         <v>1383</v>
       </c>
       <c r="C385" s="21" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D385" s="34" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E385" s="22"/>
       <c r="G385" s="13"/>
@@ -7342,10 +7348,10 @@
         <v>1384</v>
       </c>
       <c r="C386" s="21" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D386" s="34" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="E386" s="22"/>
       <c r="G386" s="13"/>
@@ -7358,10 +7364,10 @@
         <v>1385</v>
       </c>
       <c r="C387" s="21" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D387" s="34" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E387" s="22"/>
       <c r="G387" s="13"/>
@@ -7374,10 +7380,10 @@
         <v>1386</v>
       </c>
       <c r="C388" s="21" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D388" s="34" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="E388" s="22"/>
       <c r="G388" s="13"/>
@@ -7390,10 +7396,10 @@
         <v>1387</v>
       </c>
       <c r="C389" s="21" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D389" s="34" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E389" s="22"/>
       <c r="G389" s="13"/>
@@ -7406,10 +7412,10 @@
         <v>1388</v>
       </c>
       <c r="C390" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D390" s="34" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E390" s="22"/>
     </row>
@@ -7421,13 +7427,13 @@
         <v>1389</v>
       </c>
       <c r="C391" s="21" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="D391" s="34" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="E391" s="22" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -7438,7 +7444,7 @@
         <v>1390</v>
       </c>
       <c r="C392" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D392" s="34"/>
       <c r="E392" s="22"/>
@@ -7451,28 +7457,28 @@
         <v>1391</v>
       </c>
       <c r="C393" s="21" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D393" s="34" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="E393" s="22"/>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="17" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B394" s="6">
         <v>1392</v>
       </c>
       <c r="C394" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D394" s="34" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E394" s="36" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -7483,7 +7489,7 @@
         <v>1393</v>
       </c>
       <c r="C395" s="21" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="D395" s="34"/>
       <c r="E395" s="36"/>
@@ -7496,10 +7502,10 @@
         <v>1394</v>
       </c>
       <c r="C396" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D396" s="34" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E396" s="36"/>
     </row>
@@ -7511,10 +7517,10 @@
         <v>1395</v>
       </c>
       <c r="C397" s="21" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D397" s="34" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E397" s="36"/>
     </row>
@@ -7526,10 +7532,10 @@
         <v>1396</v>
       </c>
       <c r="C398" s="21" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="D398" s="34" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="E398" s="36"/>
     </row>
@@ -7541,10 +7547,10 @@
         <v>1397</v>
       </c>
       <c r="C399" s="21" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="D399" s="34" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E399" s="36"/>
     </row>
@@ -7556,41 +7562,41 @@
         <v>1398</v>
       </c>
       <c r="C400" s="21" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D400" s="34" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E400" s="36"/>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="6">
-        <v>29</v>
+      <c r="A401" s="17" t="s">
+        <v>474</v>
       </c>
       <c r="B401" s="6">
         <v>1399</v>
       </c>
       <c r="C401" s="21" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D401" s="34"/>
       <c r="E401" s="36"/>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="17" t="s">
-        <v>469</v>
+      <c r="A402" s="17">
+        <v>30</v>
       </c>
       <c r="B402" s="6">
         <v>1400</v>
       </c>
       <c r="C402" s="21" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="D402" s="34" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="E402" s="36" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7601,10 +7607,10 @@
         <v>1401</v>
       </c>
       <c r="C403" s="21" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="D403" s="34" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="E403" s="36"/>
     </row>
@@ -7616,10 +7622,10 @@
         <v>1402</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D404" s="25" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E404" s="4"/>
     </row>
@@ -7631,26 +7637,26 @@
         <v>1403</v>
       </c>
       <c r="C405" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D405" s="25"/>
       <c r="E405" s="4"/>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="17" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="B406" s="6">
         <v>1404</v>
       </c>
       <c r="C406" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D406" s="25" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7661,7 +7667,7 @@
         <v>1405</v>
       </c>
       <c r="C407" s="13" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="D407" s="25"/>
       <c r="E407" s="4"/>
@@ -7674,11 +7680,11 @@
         <v>1406</v>
       </c>
       <c r="C408" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D408" s="25"/>
       <c r="E408" s="4" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7689,7 +7695,7 @@
         <v>1407</v>
       </c>
       <c r="C409" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D409" s="25"/>
       <c r="E409" s="14"/>
@@ -7702,13 +7708,13 @@
         <v>1408</v>
       </c>
       <c r="C410" s="21" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="D410" s="34" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="E410" s="22" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7719,11 +7725,11 @@
         <v>1409</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D411" s="25"/>
       <c r="E411" s="36" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7734,11 +7740,11 @@
         <v>1410</v>
       </c>
       <c r="C412" s="13" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="D412" s="25"/>
       <c r="E412" s="14" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7749,13 +7755,13 @@
         <v>1411</v>
       </c>
       <c r="C413" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D413" s="34" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E413" s="14" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7766,10 +7772,10 @@
         <v>1412</v>
       </c>
       <c r="C414" s="21" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D414" s="34" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E414" s="4"/>
     </row>
@@ -7781,10 +7787,10 @@
         <v>1413</v>
       </c>
       <c r="C415" s="21" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="D415" s="34" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="E415" s="4"/>
     </row>
@@ -7796,10 +7802,10 @@
         <v>1414</v>
       </c>
       <c r="C416" s="21" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="D416" s="34" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E416" s="4"/>
     </row>
@@ -7811,22 +7817,22 @@
         <v>1415</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D417" s="25" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E417" s="4"/>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="6">
-        <v>16</v>
+      <c r="A418" s="17" t="s">
+        <v>473</v>
       </c>
       <c r="B418" s="6">
         <v>1416</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="D418" s="25"/>
       <c r="E418" s="4"/>
@@ -7837,7 +7843,7 @@
         <v>1417</v>
       </c>
       <c r="C419" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D419" s="25"/>
       <c r="E419" s="4"/>
@@ -7848,13 +7854,13 @@
         <v>1418</v>
       </c>
       <c r="C420" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D420" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E420" s="15" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7863,7 +7869,7 @@
         <v>1419</v>
       </c>
       <c r="C421" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D421" s="25"/>
       <c r="E421" s="14"/>
@@ -7874,7 +7880,7 @@
         <v>1420</v>
       </c>
       <c r="C422" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D422" s="25"/>
       <c r="E422" s="14"/>
@@ -7885,7 +7891,7 @@
         <v>1421</v>
       </c>
       <c r="C423" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D423" s="25"/>
       <c r="E423" s="4"/>
@@ -7896,11 +7902,11 @@
         <v>1422</v>
       </c>
       <c r="C424" s="21" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D424" s="25"/>
       <c r="E424" s="15" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7909,7 +7915,7 @@
         <v>1423</v>
       </c>
       <c r="C425" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D425" s="25"/>
       <c r="E425" s="15"/>
@@ -7920,7 +7926,7 @@
         <v>1424</v>
       </c>
       <c r="C426" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D426" s="25"/>
       <c r="E426" s="15"/>
@@ -7931,7 +7937,7 @@
         <v>1425</v>
       </c>
       <c r="C427" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D427" s="25"/>
       <c r="E427" s="15"/>
@@ -7942,7 +7948,7 @@
         <v>1426</v>
       </c>
       <c r="C428" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D428" s="25"/>
       <c r="E428" s="15"/>
@@ -7953,7 +7959,7 @@
         <v>1427</v>
       </c>
       <c r="C429" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D429" s="25"/>
       <c r="E429" s="15"/>
@@ -7964,7 +7970,7 @@
         <v>1428</v>
       </c>
       <c r="C430" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D430" s="25"/>
       <c r="E430" s="15"/>
@@ -7975,7 +7981,7 @@
         <v>1429</v>
       </c>
       <c r="C431" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D431" s="25"/>
       <c r="E431" s="15"/>
@@ -7986,7 +7992,7 @@
         <v>1430</v>
       </c>
       <c r="C432" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D432" s="25"/>
       <c r="E432" s="15"/>
@@ -7997,7 +8003,7 @@
         <v>1431</v>
       </c>
       <c r="C433" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D433" s="25"/>
       <c r="E433" s="15"/>
@@ -8008,7 +8014,7 @@
         <v>1432</v>
       </c>
       <c r="C434" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D434" s="25"/>
       <c r="E434" s="15"/>
@@ -8019,7 +8025,7 @@
         <v>1433</v>
       </c>
       <c r="C435" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D435" s="25"/>
       <c r="E435" s="15"/>
@@ -8030,7 +8036,7 @@
         <v>1434</v>
       </c>
       <c r="C436" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D436" s="25"/>
       <c r="E436" s="15"/>
@@ -8041,7 +8047,7 @@
         <v>1435</v>
       </c>
       <c r="C437" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D437" s="25"/>
       <c r="E437" s="15"/>
@@ -8052,7 +8058,7 @@
         <v>1436</v>
       </c>
       <c r="C438" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D438" s="25"/>
       <c r="E438" s="15"/>
@@ -8063,7 +8069,7 @@
         <v>1437</v>
       </c>
       <c r="C439" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D439" s="25"/>
       <c r="E439" s="15"/>
@@ -8074,11 +8080,11 @@
         <v>1438</v>
       </c>
       <c r="C440" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D440" s="25"/>
       <c r="E440" s="15" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -8087,7 +8093,7 @@
         <v>1439</v>
       </c>
       <c r="C441" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D441" s="25"/>
       <c r="E441" s="15"/>
@@ -8098,7 +8104,7 @@
         <v>1440</v>
       </c>
       <c r="C442" s="21" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="D442" s="25"/>
       <c r="E442" s="15"/>
@@ -8109,7 +8115,7 @@
         <v>1441</v>
       </c>
       <c r="C443" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D443" s="25"/>
       <c r="E443" s="14"/>
@@ -8120,7 +8126,7 @@
         <v>1442</v>
       </c>
       <c r="C444" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D444" s="25"/>
       <c r="E444" s="14"/>
@@ -8131,7 +8137,7 @@
         <v>1443</v>
       </c>
       <c r="C445" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D445" s="25"/>
       <c r="E445" s="14"/>
@@ -8142,7 +8148,7 @@
         <v>1444</v>
       </c>
       <c r="C446" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D446" s="25"/>
       <c r="E446" s="14"/>
@@ -8153,7 +8159,7 @@
         <v>1445</v>
       </c>
       <c r="C447" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D447" s="25"/>
       <c r="E447" s="14"/>
@@ -8164,7 +8170,7 @@
         <v>1446</v>
       </c>
       <c r="C448" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D448" s="25"/>
       <c r="E448" s="14"/>
@@ -8175,7 +8181,7 @@
         <v>1447</v>
       </c>
       <c r="C449" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D449" s="25"/>
       <c r="E449" s="14"/>
@@ -8186,7 +8192,7 @@
         <v>1448</v>
       </c>
       <c r="C450" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D450" s="25"/>
       <c r="E450" s="14"/>
@@ -8197,7 +8203,7 @@
         <v>1449</v>
       </c>
       <c r="C451" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D451" s="25"/>
       <c r="E451" s="14"/>
@@ -8208,7 +8214,7 @@
         <v>1450</v>
       </c>
       <c r="C452" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D452" s="25"/>
       <c r="E452" s="14"/>
@@ -8219,7 +8225,7 @@
         <v>1451</v>
       </c>
       <c r="C453" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D453" s="25"/>
       <c r="E453" s="14"/>
@@ -8230,7 +8236,7 @@
         <v>1452</v>
       </c>
       <c r="C454" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D454" s="25"/>
       <c r="E454" s="14"/>
@@ -8241,7 +8247,7 @@
         <v>1453</v>
       </c>
       <c r="C455" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D455" s="25"/>
       <c r="E455" s="14"/>
@@ -8252,7 +8258,7 @@
         <v>1454</v>
       </c>
       <c r="C456" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D456" s="25"/>
       <c r="E456" s="14"/>
@@ -8263,11 +8269,11 @@
         <v>1455</v>
       </c>
       <c r="C457" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D457" s="25"/>
       <c r="E457" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8276,7 +8282,7 @@
         <v>1456</v>
       </c>
       <c r="C458" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D458" s="25"/>
       <c r="E458" s="14"/>
@@ -8287,7 +8293,7 @@
         <v>1457</v>
       </c>
       <c r="C459" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D459" s="25"/>
       <c r="E459" s="14"/>
@@ -8298,7 +8304,7 @@
         <v>1458</v>
       </c>
       <c r="C460" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D460" s="25"/>
       <c r="E460" s="14"/>
@@ -8309,7 +8315,7 @@
         <v>1459</v>
       </c>
       <c r="C461" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="14"/>
@@ -8320,7 +8326,7 @@
         <v>1460</v>
       </c>
       <c r="C462" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D462" s="25"/>
       <c r="E462" s="14"/>
@@ -8331,7 +8337,7 @@
         <v>1461</v>
       </c>
       <c r="C463" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D463" s="25"/>
       <c r="E463" s="14"/>
@@ -8342,7 +8348,7 @@
         <v>1462</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D464" s="25"/>
       <c r="E464" s="14"/>
@@ -8353,7 +8359,7 @@
         <v>1463</v>
       </c>
       <c r="C465" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D465" s="25"/>
       <c r="E465" s="14"/>
@@ -8364,7 +8370,7 @@
         <v>1464</v>
       </c>
       <c r="C466" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D466" s="25"/>
       <c r="E466" s="14"/>
@@ -8375,7 +8381,7 @@
         <v>1465</v>
       </c>
       <c r="C467" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D467" s="25"/>
       <c r="E467" s="14"/>
@@ -8386,7 +8392,7 @@
         <v>1466</v>
       </c>
       <c r="C468" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D468" s="25"/>
       <c r="E468" s="14"/>
@@ -8397,11 +8403,11 @@
         <v>1467</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="D469" s="25"/>
       <c r="E469" s="15" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8410,18 +8416,18 @@
         <v>1468</v>
       </c>
       <c r="C470" s="13" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D470" s="25"/>
       <c r="E470" s="14"/>
     </row>
     <row r="471" spans="1:5" ht="16.2" thickBot="1">
       <c r="A471" s="18"/>
-      <c r="B471" s="6">
+      <c r="B471" s="18">
         <v>1469</v>
       </c>
       <c r="C471" s="19" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="D471" s="35"/>
       <c r="E471" s="20"/>
@@ -8480,19 +8486,19 @@
     <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="3"/>
       <c r="B7" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6">
@@ -8504,73 +8510,73 @@
     <row r="9" spans="1:2" ht="15.6">
       <c r="A9" s="3"/>
       <c r="B9" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6">
       <c r="A10" s="3"/>
       <c r="B10" s="29" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6">
       <c r="A11" s="3"/>
       <c r="B11" s="29" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6">
       <c r="A12" s="3"/>
       <c r="B12" s="29" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6">
       <c r="A13" s="3"/>
       <c r="B13" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6">
       <c r="A14" s="3"/>
       <c r="B14" s="30" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6">
       <c r="A15" s="3"/>
       <c r="B15" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6">
       <c r="A16" s="3"/>
       <c r="B16" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6">
       <c r="A17" s="3"/>
       <c r="B17" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="3"/>
       <c r="B18" s="30" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6">
       <c r="A19" s="3"/>
       <c r="B19" s="30" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6">
       <c r="A20" s="3"/>
       <c r="B20" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6">
@@ -8582,25 +8588,25 @@
     <row r="22" spans="1:2" ht="15.6">
       <c r="A22" s="3"/>
       <c r="B22" s="31" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6">
       <c r="A23" s="3"/>
       <c r="B23" s="31" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6">
       <c r="A24" s="3"/>
       <c r="B24" s="31" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6">
       <c r="A25" s="3"/>
       <c r="B25" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6">
@@ -8632,7 +8638,7 @@
         <v>550</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.2" thickBot="1">

--- a/CISCSimulator/doc/test_program1_design_FN.xlsx
+++ b/CISCSimulator/doc/test_program1_design_FN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\github\CISC_Machine\CISCSimulator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BF4EFB-78A4-4919-9A43-471D0509DCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D2C51F-226B-4689-8B48-90B16CE97BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1728" yWindow="0" windowWidth="21312" windowHeight="12960" xr2:uid="{EFBCDC6E-D5C0-4EA5-8F8C-AB656C5046D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="483">
   <si>
     <t xml:space="preserve"> IN 0, 0</t>
   </si>
@@ -604,9 +604,6 @@
   </si>
   <si>
     <t>//by commas</t>
-  </si>
-  <si>
-    <t>// call get a number()</t>
   </si>
   <si>
     <t>//print "Input search number"</t>
@@ -2111,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3678236-C951-4578-99F9-475994DA1FF9}">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2162,7 +2159,7 @@
         <v>96</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>159</v>
@@ -2180,7 +2177,7 @@
         <v>1001</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="15" t="s">
@@ -2203,7 +2200,7 @@
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="26" t="s">
@@ -2216,7 +2213,7 @@
         <v>1003</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="15"/>
@@ -2231,7 +2228,7 @@
         <v>1004</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="15"/>
@@ -2297,7 +2294,7 @@
       <c r="E10" s="14"/>
       <c r="G10" s="3"/>
       <c r="H10" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" thickBot="1">
@@ -2312,7 +2309,7 @@
       <c r="E11" s="20"/>
       <c r="G11" s="3"/>
       <c r="H11" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2326,14 +2323,14 @@
         <v>47</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>160</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2363,7 +2360,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="3"/>
       <c r="H14" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2378,7 +2375,7 @@
         <v>118</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="30" t="s">
@@ -2411,10 +2408,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="30" t="s">
@@ -2430,14 +2427,14 @@
         <v>53</v>
       </c>
       <c r="D18" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>201</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2454,7 +2451,7 @@
       <c r="E19" s="14"/>
       <c r="G19" s="3"/>
       <c r="H19" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2466,7 +2463,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="3"/>
@@ -2500,12 +2497,12 @@
         <v>54</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="3"/>
       <c r="H22" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2522,7 +2519,7 @@
       <c r="E23" s="14"/>
       <c r="G23" s="3"/>
       <c r="H23" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2535,11 +2532,11 @@
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2552,7 +2549,7 @@
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="31" t="s">
@@ -2569,7 +2566,7 @@
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>16</v>
@@ -2588,7 +2585,7 @@
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G27" s="3">
         <v>420</v>
@@ -2632,7 +2629,7 @@
         <v>550</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" thickBot="1">
@@ -2664,7 +2661,7 @@
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2677,7 +2674,7 @@
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2690,7 +2687,7 @@
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2703,7 +2700,7 @@
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2755,7 +2752,7 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2768,7 +2765,7 @@
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2781,7 +2778,7 @@
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2794,7 +2791,7 @@
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2846,7 +2843,7 @@
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2859,7 +2856,7 @@
       </c>
       <c r="D46" s="34"/>
       <c r="E46" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2872,7 +2869,7 @@
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2885,7 +2882,7 @@
       </c>
       <c r="D48" s="34"/>
       <c r="E48" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2937,7 +2934,7 @@
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2950,7 +2947,7 @@
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2963,7 +2960,7 @@
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2976,7 +2973,7 @@
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="31.2">
@@ -2989,7 +2986,7 @@
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3159,7 +3156,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B72" s="38">
         <v>1070</v>
@@ -3171,7 +3168,7 @@
         <v>37</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3186,7 +3183,7 @@
         <v>39</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3211,10 +3208,10 @@
         <v>41</v>
       </c>
       <c r="D75" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3239,10 +3236,10 @@
         <v>42</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3267,10 +3264,10 @@
         <v>44</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3294,7 +3291,7 @@
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3303,13 +3300,13 @@
         <v>1080</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D82" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D82" s="25" t="s">
-        <v>282</v>
-      </c>
       <c r="E82" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3335,7 +3332,7 @@
         <v>103</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3376,7 +3373,7 @@
         <v>66</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3401,10 +3398,10 @@
         <v>100</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3419,7 +3416,7 @@
         <v>68</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3434,7 +3431,7 @@
         <v>70</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3446,10 +3443,10 @@
         <v>50</v>
       </c>
       <c r="D92" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>217</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3462,7 +3459,7 @@
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3477,7 +3474,7 @@
         <v>91</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3492,7 +3489,7 @@
         <v>92</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3512,11 +3509,11 @@
         <v>1095</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D97" s="25"/>
       <c r="E97" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3614,7 +3611,7 @@
       </c>
       <c r="D105" s="25"/>
       <c r="E105" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3627,7 +3624,7 @@
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3761,7 +3758,7 @@
       </c>
       <c r="D118" s="25"/>
       <c r="E118" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3928,7 +3925,7 @@
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4058,12 +4055,10 @@
         <v>1143</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D145" s="25"/>
-      <c r="E145" s="15" t="s">
-        <v>380</v>
-      </c>
+      <c r="E145" s="15"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="6"/>
@@ -4071,7 +4066,7 @@
         <v>1144</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>382</v>
+        <v>73</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="15"/>
@@ -4082,7 +4077,7 @@
         <v>1145</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>383</v>
+        <v>72</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="15"/>
@@ -4093,7 +4088,7 @@
         <v>1146</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="15"/>
@@ -4104,10 +4099,12 @@
         <v>1147</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="D149" s="25"/>
-      <c r="E149" s="15"/>
+      <c r="E149" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="6"/>
@@ -4115,7 +4112,7 @@
         <v>1148</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>72</v>
+        <v>381</v>
       </c>
       <c r="D150" s="25"/>
       <c r="E150" s="15"/>
@@ -4126,12 +4123,10 @@
         <v>1149</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="D151" s="25"/>
-      <c r="E151" s="15" t="s">
-        <v>191</v>
-      </c>
+      <c r="E151" s="15"/>
     </row>
     <row r="152" spans="1:5" ht="16.2" thickBot="1">
       <c r="A152" s="6"/>
@@ -4139,7 +4134,7 @@
         <v>1150</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="15"/>
@@ -5088,19 +5083,19 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B237" s="6">
         <v>1235</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5114,7 +5109,7 @@
         <v>142</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E238" s="14"/>
     </row>
@@ -5129,25 +5124,25 @@
         <v>50</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B240" s="6">
         <v>1238</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D240" s="25"/>
       <c r="E240" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5158,28 +5153,28 @@
         <v>1239</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D241" s="25"/>
       <c r="E241" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B242" s="6">
         <v>1240</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5194,21 +5189,21 @@
       </c>
       <c r="D243" s="25"/>
       <c r="E243" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B244" s="6">
         <v>1242</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E244" s="15"/>
     </row>
@@ -5220,26 +5215,26 @@
         <v>1243</v>
       </c>
       <c r="C245" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D245" s="25" t="s">
         <v>240</v>
-      </c>
-      <c r="D245" s="25" t="s">
-        <v>241</v>
       </c>
       <c r="E245" s="15"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B246" s="6">
         <v>1244</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D246" s="25"/>
       <c r="E246" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5250,28 +5245,28 @@
         <v>1245</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D247" s="25"/>
       <c r="E247" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B248" s="6">
         <v>1246</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5286,24 +5281,24 @@
       </c>
       <c r="D249" s="25"/>
       <c r="E249" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B250" s="6">
         <v>1248</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5318,7 +5313,7 @@
       </c>
       <c r="D251" s="25"/>
       <c r="E251" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5378,19 +5373,19 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B257" s="38">
         <v>1255</v>
       </c>
       <c r="C257" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D257" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E257" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5401,10 +5396,10 @@
         <v>1256</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E258" s="14"/>
     </row>
@@ -5416,10 +5411,10 @@
         <v>1257</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E259" s="14"/>
     </row>
@@ -5431,10 +5426,10 @@
         <v>1258</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E260" s="14"/>
     </row>
@@ -5446,10 +5441,10 @@
         <v>1259</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E261" s="14"/>
     </row>
@@ -5461,10 +5456,10 @@
         <v>1260</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E262" s="14"/>
     </row>
@@ -5476,10 +5471,10 @@
         <v>1261</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E263" s="14"/>
     </row>
@@ -5491,10 +5486,10 @@
         <v>1262</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E264" s="14"/>
     </row>
@@ -5506,13 +5501,13 @@
         <v>1263</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E265" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5523,13 +5518,13 @@
         <v>1264</v>
       </c>
       <c r="C266" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D266" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D266" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="E266" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5540,13 +5535,13 @@
         <v>1265</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E267" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5557,13 +5552,13 @@
         <v>1266</v>
       </c>
       <c r="C268" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D268" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D268" s="25" t="s">
-        <v>267</v>
-      </c>
       <c r="E268" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5577,7 +5572,7 @@
         <v>53</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E269" s="15"/>
     </row>
@@ -5589,18 +5584,18 @@
         <v>1268</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E270" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B271" s="6">
         <v>1269</v>
@@ -5622,10 +5617,10 @@
         <v>117</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E272" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5636,13 +5631,13 @@
         <v>1271</v>
       </c>
       <c r="C273" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D273" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="D273" s="25" t="s">
-        <v>250</v>
-      </c>
       <c r="E273" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5656,23 +5651,23 @@
         <v>24</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E274" s="14"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B275" s="6">
         <v>1273</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D275" s="25"/>
       <c r="E275" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5683,28 +5678,28 @@
         <v>1274</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D276" s="25"/>
       <c r="E276" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B277" s="6">
         <v>1275</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E277" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5715,10 +5710,10 @@
         <v>1276</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E278" s="14"/>
     </row>
@@ -5730,10 +5725,10 @@
         <v>1277</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E279" s="14"/>
     </row>
@@ -5745,10 +5740,10 @@
         <v>1278</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E280" s="14"/>
     </row>
@@ -5760,10 +5755,10 @@
         <v>1279</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E281" s="14"/>
     </row>
@@ -5775,10 +5770,10 @@
         <v>1280</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E282" s="14"/>
     </row>
@@ -5790,10 +5785,10 @@
         <v>1281</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E283" s="14"/>
     </row>
@@ -5805,10 +5800,10 @@
         <v>1282</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E284" s="14"/>
     </row>
@@ -5824,24 +5819,24 @@
       </c>
       <c r="D285" s="25"/>
       <c r="E285" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B286" s="6">
         <v>1284</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5852,10 +5847,10 @@
         <v>1285</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E287" s="14"/>
     </row>
@@ -5867,13 +5862,13 @@
         <v>1286</v>
       </c>
       <c r="C288" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D288" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D288" s="25" t="s">
-        <v>282</v>
-      </c>
       <c r="E288" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5884,13 +5879,13 @@
         <v>1287</v>
       </c>
       <c r="C289" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D289" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="D289" s="25" t="s">
-        <v>279</v>
-      </c>
       <c r="E289" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5901,13 +5896,13 @@
         <v>1288</v>
       </c>
       <c r="C290" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D290" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D290" s="25" t="s">
-        <v>291</v>
-      </c>
       <c r="E290" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5918,13 +5913,13 @@
         <v>1289</v>
       </c>
       <c r="C291" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="D291" s="25" t="s">
-        <v>276</v>
-      </c>
       <c r="E291" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5935,10 +5930,10 @@
         <v>1290</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E292" s="4"/>
     </row>
@@ -5950,13 +5945,13 @@
         <v>1291</v>
       </c>
       <c r="C293" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D293" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D293" s="25" t="s">
-        <v>293</v>
-      </c>
       <c r="E293" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5970,10 +5965,10 @@
         <v>44</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E294" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5984,7 +5979,7 @@
         <v>1293</v>
       </c>
       <c r="C295" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D295" s="25" t="s">
         <v>98</v>
@@ -5999,10 +5994,10 @@
         <v>1294</v>
       </c>
       <c r="C296" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D296" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="E296" s="15"/>
     </row>
@@ -6044,13 +6039,13 @@
         <v>1297</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6068,13 +6063,13 @@
     </row>
     <row r="301" spans="1:5" ht="16.2" thickBot="1">
       <c r="A301" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B301" s="18">
         <v>1299</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D301" s="35"/>
       <c r="E301" s="43" t="s">
@@ -6100,7 +6095,7 @@
         <v>1301</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D303" s="26" t="s">
         <v>5</v>
@@ -6145,13 +6140,13 @@
         <v>1304</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D306" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E306" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="31.2">
@@ -6166,7 +6161,7 @@
         <v>131</v>
       </c>
       <c r="E307" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6181,7 +6176,7 @@
         <v>130</v>
       </c>
       <c r="E308" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6229,13 +6224,13 @@
         <v>1310</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D312" s="25" t="s">
         <v>169</v>
       </c>
       <c r="E312" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6247,7 +6242,7 @@
         <v>53</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E313" s="14"/>
     </row>
@@ -6257,11 +6252,11 @@
         <v>1312</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D314" s="25"/>
       <c r="E314" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6355,7 +6350,7 @@
         <v>130</v>
       </c>
       <c r="E322" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6386,7 +6381,7 @@
         <v>171</v>
       </c>
       <c r="D324" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E324" s="14" t="s">
         <v>172</v>
@@ -6400,7 +6395,7 @@
         <v>1323</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D325" s="25" t="s">
         <v>121</v>
@@ -6415,13 +6410,13 @@
         <v>1324</v>
       </c>
       <c r="C326" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D326" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D326" s="25" t="s">
-        <v>234</v>
-      </c>
       <c r="E326" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6438,7 +6433,7 @@
         <v>118</v>
       </c>
       <c r="E327" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6449,7 +6444,7 @@
         <v>1326</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D328" s="25"/>
       <c r="E328" s="14" t="s">
@@ -6485,7 +6480,7 @@
         <v>176</v>
       </c>
       <c r="E330" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6496,7 +6491,7 @@
         <v>1329</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D331" s="24" t="s">
         <v>177</v>
@@ -6513,18 +6508,18 @@
         <v>1330</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D332" s="24" t="s">
         <v>178</v>
       </c>
       <c r="E332" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B333" s="6">
         <v>1331</v>
@@ -6554,19 +6549,19 @@
     </row>
     <row r="335" spans="1:5" ht="31.2">
       <c r="A335" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B335" s="6">
         <v>1333</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D335" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E335" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6577,13 +6572,13 @@
         <v>1334</v>
       </c>
       <c r="C336" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D336" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D336" s="25" t="s">
-        <v>234</v>
-      </c>
       <c r="E336" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -6594,10 +6589,10 @@
         <v>1335</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D337" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E337" s="14" t="s">
         <v>143</v>
@@ -6611,7 +6606,7 @@
         <v>1336</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D338" s="25"/>
       <c r="E338" s="15" t="s">
@@ -6648,7 +6643,7 @@
         <v>176</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -6672,13 +6667,13 @@
         <v>1340</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D342" s="24" t="s">
         <v>177</v>
       </c>
       <c r="E342" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -6689,27 +6684,27 @@
         <v>1341</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D343" s="24" t="s">
         <v>178</v>
       </c>
       <c r="E343" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B344" s="6">
         <v>1342</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E344" s="14" t="s">
         <v>180</v>
@@ -6723,7 +6718,7 @@
         <v>1343</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D345" s="25" t="s">
         <v>98</v>
@@ -6738,7 +6733,7 @@
         <v>1344</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D346" s="25" t="s">
         <v>122</v>
@@ -6753,10 +6748,10 @@
         <v>1345</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D347" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E347" s="14"/>
     </row>
@@ -6768,11 +6763,11 @@
         <v>1346</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D348" s="25"/>
       <c r="E348" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -6790,13 +6785,13 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B350" s="6">
         <v>1348</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D350" s="25" t="s">
         <v>98</v>
@@ -6856,7 +6851,7 @@
         <v>1352</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D354" s="25" t="s">
         <v>140</v>
@@ -6873,10 +6868,10 @@
         <v>1353</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D355" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E355" s="14"/>
     </row>
@@ -6888,13 +6883,13 @@
         <v>1354</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D356" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E356" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -6908,10 +6903,10 @@
         <v>50</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E357" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -6935,10 +6930,10 @@
         <v>1357</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D359" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E359" s="14"/>
     </row>
@@ -6950,10 +6945,10 @@
         <v>1358</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E360" s="14"/>
     </row>
@@ -6968,7 +6963,7 @@
         <v>52</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E361" s="14"/>
     </row>
@@ -6983,7 +6978,7 @@
         <v>42</v>
       </c>
       <c r="D362" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E362" s="14"/>
     </row>
@@ -6995,16 +6990,16 @@
         <v>1361</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D363" s="25"/>
       <c r="E363" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B364" s="6">
         <v>1362</v>
@@ -7014,7 +7009,7 @@
       </c>
       <c r="D364" s="25"/>
       <c r="E364" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -7100,19 +7095,19 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B372" s="38">
         <v>1370</v>
       </c>
       <c r="C372" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D372" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="E372" s="41" t="s">
         <v>398</v>
-      </c>
-      <c r="E372" s="41" t="s">
-        <v>399</v>
       </c>
       <c r="F372" s="13"/>
       <c r="G372" s="13"/>
@@ -7125,13 +7120,13 @@
         <v>1371</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D373" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E373" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F373" s="13"/>
       <c r="G373" s="13"/>
@@ -7144,13 +7139,13 @@
         <v>1372</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D374" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E374" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F374" s="13"/>
       <c r="G374" s="13"/>
@@ -7163,13 +7158,13 @@
         <v>1373</v>
       </c>
       <c r="C375" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D375" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="D375" s="25" t="s">
+      <c r="E375" s="14" t="s">
         <v>388</v>
-      </c>
-      <c r="E375" s="14" t="s">
-        <v>389</v>
       </c>
       <c r="F375" s="13"/>
       <c r="G375" s="13"/>
@@ -7199,10 +7194,10 @@
         <v>1375</v>
       </c>
       <c r="C377" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D377" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E377" s="22"/>
       <c r="F377" s="13"/>
@@ -7219,10 +7214,10 @@
         <v>117</v>
       </c>
       <c r="D378" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E378" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F378" s="13"/>
       <c r="G378" s="13"/>
@@ -7238,7 +7233,7 @@
         <v>51</v>
       </c>
       <c r="D379" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E379" s="36" t="s">
         <v>133</v>
@@ -7252,13 +7247,13 @@
         <v>1378</v>
       </c>
       <c r="C380" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D380" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E380" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G380" s="8"/>
     </row>
@@ -7270,10 +7265,10 @@
         <v>1379</v>
       </c>
       <c r="C381" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D381" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E381" s="22"/>
     </row>
@@ -7285,10 +7280,10 @@
         <v>1380</v>
       </c>
       <c r="C382" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D382" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E382" s="36"/>
     </row>
@@ -7300,10 +7295,10 @@
         <v>1381</v>
       </c>
       <c r="C383" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D383" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E383" s="36"/>
       <c r="G383" s="13"/>
@@ -7316,10 +7311,10 @@
         <v>1382</v>
       </c>
       <c r="C384" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D384" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E384" s="22"/>
       <c r="G384" s="13"/>
@@ -7332,10 +7327,10 @@
         <v>1383</v>
       </c>
       <c r="C385" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D385" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E385" s="22"/>
       <c r="G385" s="13"/>
@@ -7348,10 +7343,10 @@
         <v>1384</v>
       </c>
       <c r="C386" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D386" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E386" s="22"/>
       <c r="G386" s="13"/>
@@ -7364,10 +7359,10 @@
         <v>1385</v>
       </c>
       <c r="C387" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D387" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E387" s="22"/>
       <c r="G387" s="13"/>
@@ -7380,10 +7375,10 @@
         <v>1386</v>
       </c>
       <c r="C388" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D388" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E388" s="22"/>
       <c r="G388" s="13"/>
@@ -7396,10 +7391,10 @@
         <v>1387</v>
       </c>
       <c r="C389" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D389" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E389" s="22"/>
       <c r="G389" s="13"/>
@@ -7415,7 +7410,7 @@
         <v>44</v>
       </c>
       <c r="D390" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E390" s="22"/>
     </row>
@@ -7427,13 +7422,13 @@
         <v>1389</v>
       </c>
       <c r="C391" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D391" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="34" t="s">
+      <c r="E391" s="22" t="s">
         <v>437</v>
-      </c>
-      <c r="E391" s="22" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -7457,16 +7452,16 @@
         <v>1391</v>
       </c>
       <c r="C393" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D393" s="34" t="s">
         <v>423</v>
-      </c>
-      <c r="D393" s="34" t="s">
-        <v>424</v>
       </c>
       <c r="E393" s="22"/>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B394" s="6">
         <v>1392</v>
@@ -7475,10 +7470,10 @@
         <v>117</v>
       </c>
       <c r="D394" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E394" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -7489,7 +7484,7 @@
         <v>1393</v>
       </c>
       <c r="C395" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D395" s="34"/>
       <c r="E395" s="36"/>
@@ -7502,10 +7497,10 @@
         <v>1394</v>
       </c>
       <c r="C396" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D396" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E396" s="36"/>
     </row>
@@ -7517,10 +7512,10 @@
         <v>1395</v>
       </c>
       <c r="C397" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D397" s="34" t="s">
         <v>425</v>
-      </c>
-      <c r="D397" s="34" t="s">
-        <v>426</v>
       </c>
       <c r="E397" s="36"/>
     </row>
@@ -7532,10 +7527,10 @@
         <v>1396</v>
       </c>
       <c r="C398" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="D398" s="34" t="s">
         <v>427</v>
-      </c>
-      <c r="D398" s="34" t="s">
-        <v>428</v>
       </c>
       <c r="E398" s="36"/>
     </row>
@@ -7547,10 +7542,10 @@
         <v>1397</v>
       </c>
       <c r="C399" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D399" s="34" t="s">
         <v>429</v>
-      </c>
-      <c r="D399" s="34" t="s">
-        <v>430</v>
       </c>
       <c r="E399" s="36"/>
     </row>
@@ -7562,22 +7557,22 @@
         <v>1398</v>
       </c>
       <c r="C400" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D400" s="34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E400" s="36"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B401" s="6">
         <v>1399</v>
       </c>
       <c r="C401" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D401" s="34"/>
       <c r="E401" s="36"/>
@@ -7590,13 +7585,13 @@
         <v>1400</v>
       </c>
       <c r="C402" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D402" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E402" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7607,10 +7602,10 @@
         <v>1401</v>
       </c>
       <c r="C403" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D403" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E403" s="36"/>
     </row>
@@ -7622,10 +7617,10 @@
         <v>1402</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D404" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E404" s="4"/>
     </row>
@@ -7644,7 +7639,7 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B406" s="6">
         <v>1404</v>
@@ -7653,10 +7648,10 @@
         <v>117</v>
       </c>
       <c r="D406" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7667,7 +7662,7 @@
         <v>1405</v>
       </c>
       <c r="C407" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D407" s="25"/>
       <c r="E407" s="4"/>
@@ -7684,7 +7679,7 @@
       </c>
       <c r="D408" s="25"/>
       <c r="E408" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7708,13 +7703,13 @@
         <v>1408</v>
       </c>
       <c r="C410" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D410" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="D410" s="34" t="s">
-        <v>440</v>
-      </c>
       <c r="E410" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7729,7 +7724,7 @@
       </c>
       <c r="D411" s="25"/>
       <c r="E411" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7740,11 +7735,11 @@
         <v>1410</v>
       </c>
       <c r="C412" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D412" s="25"/>
       <c r="E412" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7755,13 +7750,13 @@
         <v>1411</v>
       </c>
       <c r="C413" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D413" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E413" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7772,10 +7767,10 @@
         <v>1412</v>
       </c>
       <c r="C414" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D414" s="34" t="s">
         <v>425</v>
-      </c>
-      <c r="D414" s="34" t="s">
-        <v>426</v>
       </c>
       <c r="E414" s="4"/>
     </row>
@@ -7787,10 +7782,10 @@
         <v>1413</v>
       </c>
       <c r="C415" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="D415" s="34" t="s">
         <v>427</v>
-      </c>
-      <c r="D415" s="34" t="s">
-        <v>428</v>
       </c>
       <c r="E415" s="4"/>
     </row>
@@ -7802,10 +7797,10 @@
         <v>1414</v>
       </c>
       <c r="C416" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D416" s="34" t="s">
         <v>429</v>
-      </c>
-      <c r="D416" s="34" t="s">
-        <v>430</v>
       </c>
       <c r="E416" s="4"/>
     </row>
@@ -7817,22 +7812,22 @@
         <v>1415</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D417" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E417" s="4"/>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B418" s="6">
         <v>1416</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D418" s="25"/>
       <c r="E418" s="4"/>
@@ -7860,7 +7855,7 @@
         <v>75</v>
       </c>
       <c r="E420" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7902,11 +7897,11 @@
         <v>1422</v>
       </c>
       <c r="C424" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D424" s="25"/>
       <c r="E424" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -8084,7 +8079,7 @@
       </c>
       <c r="D440" s="25"/>
       <c r="E440" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -8104,7 +8099,7 @@
         <v>1440</v>
       </c>
       <c r="C442" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D442" s="25"/>
       <c r="E442" s="15"/>
@@ -8273,7 +8268,7 @@
       </c>
       <c r="D457" s="25"/>
       <c r="E457" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8403,11 +8398,11 @@
         <v>1467</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D469" s="25"/>
       <c r="E469" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8416,7 +8411,7 @@
         <v>1468</v>
       </c>
       <c r="C470" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D470" s="25"/>
       <c r="E470" s="14"/>
@@ -8427,7 +8422,7 @@
         <v>1469</v>
       </c>
       <c r="C471" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D471" s="35"/>
       <c r="E471" s="20"/>
@@ -8516,19 +8511,19 @@
     <row r="10" spans="1:2" ht="15.6">
       <c r="A10" s="3"/>
       <c r="B10" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6">
       <c r="A11" s="3"/>
       <c r="B11" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6">
       <c r="A12" s="3"/>
       <c r="B12" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6">
@@ -8540,7 +8535,7 @@
     <row r="14" spans="1:2" ht="15.6">
       <c r="A14" s="3"/>
       <c r="B14" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6">
@@ -8564,13 +8559,13 @@
     <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="3"/>
       <c r="B18" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6">
       <c r="A19" s="3"/>
       <c r="B19" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6">
@@ -8588,19 +8583,19 @@
     <row r="22" spans="1:2" ht="15.6">
       <c r="A22" s="3"/>
       <c r="B22" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6">
       <c r="A23" s="3"/>
       <c r="B23" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6">
       <c r="A24" s="3"/>
       <c r="B24" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6">
@@ -8638,7 +8633,7 @@
         <v>550</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.2" thickBot="1">
